--- a/program/program.xlsx
+++ b/program/program.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,20 +8,38 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rogerbeecham/Dropbox (Personal)/-/git/gisruk2024.github.io/program/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{7E547AA0-F9D1-FE42-A50E-80C64AC814F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE2C6D67-4357-5D4B-9FD9-6C593F97313A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3900" yWindow="2200" windowWidth="28040" windowHeight="17440"/>
+    <workbookView xWindow="10180" yWindow="9980" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="program" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">program!$A$1:$L$129</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="934" uniqueCount="443">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1241" uniqueCount="506">
   <si>
     <t>Day</t>
   </si>
@@ -65,9 +83,6 @@
     <t>ECR Workshop</t>
   </si>
   <si>
-    <t>1400-1430</t>
-  </si>
-  <si>
     <t>Welcome</t>
   </si>
   <si>
@@ -110,9 +125,6 @@
     <t>ECR Social</t>
   </si>
   <si>
-    <t>1800-late</t>
-  </si>
-  <si>
     <t>Dinner+Social, &lt;a href='https://www.parksidetavern.co.uk/'&gt;Parkside Tavern&lt;/a&gt;</t>
   </si>
   <si>
@@ -965,9 +977,6 @@
     <t>Water, *Chair: &lt;a href='https://jonnyhuck.co.uk/'&gt;Jonny Huck&lt;/a&gt;*</t>
   </si>
   <si>
-    <t>Public Transport, *Chair: &lt;a href='https://github.com/ksuchak1990'&gt;Kieran Suchak&lt;/a&gt;*</t>
-  </si>
-  <si>
     <t>Labour Markets and Cities, *Chair: &lt;a href='https://environment.leeds.ac.uk/geography/staff/1051/dr-nick-hood'&gt;Nick Hood&lt;/a&gt;*</t>
   </si>
   <si>
@@ -1350,12 +1359,210 @@
   </si>
   <si>
     <t>Ibrahim</t>
+  </si>
+  <si>
+    <t>Submission Id</t>
+  </si>
+  <si>
+    <t>Submitter first name</t>
+  </si>
+  <si>
+    <t>Submitter last name</t>
+  </si>
+  <si>
+    <t>From The Beer Orders to Last Orders ‚ÄìLegislation, Taxation and The Modern Beer Landscape of London</t>
+  </si>
+  <si>
+    <t>‚ÄúThe Great Blackbury Pie‚Äù ~ or ~ Focal Area Bias in Geographically Weighted Analysis</t>
+  </si>
+  <si>
+    <t>Timna</t>
+  </si>
+  <si>
+    <t>Denwood</t>
+  </si>
+  <si>
+    <t>Robin</t>
+  </si>
+  <si>
+    <t>Lovelace</t>
+  </si>
+  <si>
+    <t>Yixuan</t>
+  </si>
+  <si>
+    <t>Liang</t>
+  </si>
+  <si>
+    <t>Construction of Ecological Corridors in Karst Areas Based on Ecological Sensitivity and Ecological Service Value</t>
+  </si>
+  <si>
+    <t>Jessica</t>
+  </si>
+  <si>
+    <t>Hepburn</t>
+  </si>
+  <si>
+    <t>Dennis</t>
+  </si>
+  <si>
+    <t>Investigating the Impact of Housing Energy Efficiency on Indoor Environment at the Overheating Summer ‚Äì A Study in Southwark, London</t>
+  </si>
+  <si>
+    <t>Time in nature is associated with reduced inequalities in child mental wellbeing: evidence from global positioning system (GPS) data.</t>
+  </si>
+  <si>
+    <t>Brunsdon</t>
+  </si>
+  <si>
+    <t>Antje Barbara</t>
+  </si>
+  <si>
+    <t>Metzler</t>
+  </si>
+  <si>
+    <t>Is a (satellite) image worth a thousand data points? Comparing machine learning approaches for predicting social andenvironmental inequalities across England.</t>
+  </si>
+  <si>
+    <t>Xiaowei</t>
+  </si>
+  <si>
+    <t>Gao</t>
+  </si>
+  <si>
+    <t>Jayita</t>
+  </si>
+  <si>
+    <t>Chakraborty</t>
+  </si>
+  <si>
+    <t>Steve</t>
+  </si>
+  <si>
+    <t>Carver</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.5281/zenodo.10897767</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.5281/zenodo.10899266</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.5281/zenodo.10899415</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.5281/zenodo.10899427</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.5281/zenodo.10926066</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.5281/zenodo.10926149</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.5281/zenodo.10926716</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.5281/zenodo.10926943</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.5281/zenodo.10927580</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.5281/zenodo.10927901</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.5281/zenodo.10927954</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.5281/zenodo.10928029</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.5281/zenodo.10928045</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.5281/zenodo.10928080</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.5281/zenodo.10930846</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.5281/zenodo.10930911</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.5281/zenodo.10935620</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.5281/zenodo.10935636</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.5281/zenodo.10935650</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.5281/zenodo.10935662</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.5281/zenodo.10935693</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.5281/zenodo.10935699</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.5281/zenodo.10935707</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.5281/zenodo.10935754</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.5281/zenodo.10935869</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.5281/zenodo.10935875</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.5281/zenodo.10935879</t>
+  </si>
+  <si>
+    <t>doi</t>
+  </si>
+  <si>
+    <t>IFNA(VLOOKUP(I17,Sheet1!E$1:F$43,2,FALSE),"")</t>
+  </si>
+  <si>
+    <t>1415-1430</t>
+  </si>
+  <si>
+    <t>https://2024.gisruk.org/</t>
+  </si>
+  <si>
+    <t>1830-late</t>
+  </si>
+  <si>
+    <t>Arrival</t>
+  </si>
+  <si>
+    <t>0900-1000</t>
+  </si>
+  <si>
+    <t>Coffee, pastries, etc.</t>
+  </si>
+  <si>
+    <t>0900-0930</t>
+  </si>
+  <si>
+    <t>Public Transport, *Chair: &lt;a href='https://github.com/ksuchak1990'&gt;Keiran Suchak&lt;/a&gt;*</t>
+  </si>
+  <si>
+    <t>1330-1400</t>
+  </si>
+  <si>
+    <t>Takeaway lunch</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -2209,16 +2416,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L125"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:O129"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection sqref="A1:L129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2256,7 +2463,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -2264,23 +2471,26 @@
         <v>13</v>
       </c>
       <c r="C2" t="s">
+        <v>496</v>
+      </c>
+      <c r="D2" t="s">
         <v>14</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
         <v>15</v>
       </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s">
-        <v>16</v>
-      </c>
       <c r="J2" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(I2,Sheet1!E$1:F$43,2,FALSE),"")</f>
+        <f>_xlfn.IFNA(VLOOKUP(I2,Sheet2!E$1:F$60,2,FALSE),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="O2" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -2288,26 +2498,22 @@
         <v>13</v>
       </c>
       <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
         <v>17</v>
       </c>
-      <c r="D3" t="s">
-        <v>18</v>
-      </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J3" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(I3,Sheet1!E$1:F$43,2,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -2318,23 +2524,22 @@
         <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" t="s">
         <v>19</v>
       </c>
-      <c r="I4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J4" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(I4,Sheet1!E$1:F$43,2,FALSE),"")</f>
-        <v/>
+      <c r="J4" t="s">
+        <v>497</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -2342,23 +2547,19 @@
         <v>13</v>
       </c>
       <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
         <v>21</v>
       </c>
-      <c r="D5" t="s">
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
         <v>22</v>
       </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J5" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(I5,Sheet1!E$1:F$43,2,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -2366,26 +2567,22 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>25</v>
-      </c>
       <c r="E6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J6" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(I6,Sheet1!E$1:F$43,2,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -2396,520 +2593,466 @@
         <v>1</v>
       </c>
       <c r="G7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" t="s">
         <v>26</v>
       </c>
-      <c r="I7" t="s">
-        <v>27</v>
-      </c>
-      <c r="J7" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(I7,Sheet1!E$1:F$43,2,FALSE),"")</f>
-        <v/>
+      <c r="J7" t="s">
+        <v>497</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>12</v>
       </c>
       <c r="B8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" t="s">
+        <v>498</v>
+      </c>
+      <c r="D8" t="s">
         <v>28</v>
       </c>
-      <c r="C8" t="s">
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" t="s">
         <v>29</v>
       </c>
-      <c r="D8" t="s">
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>30</v>
       </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8" t="s">
-        <v>31</v>
-      </c>
-      <c r="J8" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(I8,Sheet1!E$1:F$43,2,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>32</v>
-      </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>499</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>500</v>
       </c>
       <c r="D9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" t="s">
-        <v>34</v>
+        <v>501</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9" t="s">
-        <v>16</v>
-      </c>
-      <c r="J9" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(I9,Sheet1!E$1:F$43,2,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B10" t="s">
         <v>13</v>
       </c>
+      <c r="C10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" t="s">
+        <v>32</v>
+      </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" t="s">
+        <v>33</v>
+      </c>
+      <c r="I11" t="s">
+        <v>34</v>
+      </c>
+      <c r="J11" t="s">
+        <v>497</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" t="s">
+        <v>41</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15" t="s">
+        <v>39</v>
+      </c>
+      <c r="H15" t="s">
+        <v>42</v>
+      </c>
+      <c r="I15" t="s">
+        <v>43</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" t="s">
         <v>16</v>
       </c>
-      <c r="H10" t="s">
-        <v>35</v>
-      </c>
-      <c r="I10" t="s">
-        <v>36</v>
-      </c>
-      <c r="J10" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(I10,Sheet1!E$1:F$43,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" t="s">
-        <v>38</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="D16" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" t="s">
+        <v>296</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16" t="s">
         <v>39</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11" t="s">
-        <v>23</v>
-      </c>
-      <c r="J11" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(I11,Sheet1!E$1:F$43,2,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>32</v>
-      </c>
-      <c r="B12" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" t="s">
-        <v>40</v>
-      </c>
-      <c r="D12" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12" t="s">
-        <v>41</v>
-      </c>
-      <c r="J12" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(I12,Sheet1!E$1:F$43,2,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" t="s">
-        <v>42</v>
-      </c>
-      <c r="D13" t="s">
-        <v>43</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13" t="s">
-        <v>41</v>
-      </c>
-      <c r="J13" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(I13,Sheet1!E$1:F$43,2,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>32</v>
-      </c>
-      <c r="B14" t="s">
-        <v>37</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14" t="s">
-        <v>41</v>
-      </c>
-      <c r="H14" t="s">
-        <v>44</v>
-      </c>
-      <c r="I14" t="s">
-        <v>45</v>
-      </c>
-      <c r="J14" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(I14,Sheet1!E$1:F$43,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" t="s">
-        <v>46</v>
-      </c>
-      <c r="C15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" t="s">
-        <v>47</v>
-      </c>
-      <c r="E15" t="s">
-        <v>298</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15" t="s">
-        <v>41</v>
-      </c>
-      <c r="J15" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(I15,Sheet1!E$1:F$43,2,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16" t="s">
-        <v>46</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16" t="s">
-        <v>41</v>
-      </c>
-      <c r="H16" t="s">
-        <v>48</v>
-      </c>
-      <c r="I16" t="s">
-        <v>49</v>
-      </c>
-      <c r="J16" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(I16,Sheet1!E$1:F$43,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="L16">
-        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17" t="s">
+        <v>39</v>
+      </c>
+      <c r="H17" t="s">
         <v>46</v>
       </c>
-      <c r="F17">
-        <v>2</v>
-      </c>
-      <c r="G17" t="s">
-        <v>41</v>
-      </c>
-      <c r="H17" t="s">
-        <v>50</v>
-      </c>
       <c r="I17" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="J17" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(I17,Sheet1!E$1:F$43,2,FALSE),"")</f>
-        <v>https://doi.org/10.5281/zenodo.10899270</v>
-      </c>
-      <c r="K17" t="s">
-        <v>52</v>
+        <f>_xlfn.IFNA(VLOOKUP(I17,Sheet2!E$1:F$60,2,FALSE),"")</f>
+        <v>https://doi.org/10.5281/zenodo.10935693</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B18" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G18" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H18" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="J18" t="s">
-        <v>323</v>
+        <v>337</v>
       </c>
       <c r="K18" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B19" t="s">
-        <v>46</v>
-      </c>
-      <c r="C19" t="s">
-        <v>17</v>
-      </c>
-      <c r="D19" t="s">
-        <v>56</v>
-      </c>
-      <c r="E19" t="s">
-        <v>299</v>
+        <v>44</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G19" t="s">
-        <v>57</v>
-      </c>
-      <c r="J19" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(I19,Sheet1!E$1:F$43,2,FALSE),"")</f>
-        <v/>
+        <v>39</v>
+      </c>
+      <c r="H19" t="s">
+        <v>51</v>
+      </c>
+      <c r="I19" t="s">
+        <v>52</v>
+      </c>
+      <c r="J19" t="s">
+        <v>320</v>
+      </c>
+      <c r="K19" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B20" t="s">
-        <v>46</v>
+        <v>44</v>
+      </c>
+      <c r="C20" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" t="s">
+        <v>54</v>
+      </c>
+      <c r="E20" t="s">
+        <v>297</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20" t="s">
-        <v>57</v>
-      </c>
-      <c r="H20" t="s">
-        <v>58</v>
-      </c>
-      <c r="I20" t="s">
-        <v>59</v>
-      </c>
-      <c r="J20" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(I20,Sheet1!E$1:F$43,2,FALSE),"")</f>
-        <v>https://doi.org/10.5281/zenodo.10899286</v>
-      </c>
-      <c r="K20" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B21" t="s">
-        <v>46</v>
-      </c>
-      <c r="C21" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="F21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G21" t="s">
+        <v>55</v>
+      </c>
+      <c r="H21" t="s">
+        <v>56</v>
+      </c>
+      <c r="I21" t="s">
         <v>57</v>
       </c>
-      <c r="H21" t="s">
-        <v>62</v>
-      </c>
-      <c r="I21" t="s">
-        <v>63</v>
-      </c>
-      <c r="J21" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(I21,Sheet1!E$1:F$43,2,FALSE),"")</f>
-        <v>https://doi.org/10.5281/zenodo.10926740</v>
+      <c r="J21" t="s">
+        <v>343</v>
       </c>
       <c r="K21" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B22" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C22" t="s">
+        <v>59</v>
+      </c>
+      <c r="F22">
+        <v>2</v>
+      </c>
+      <c r="G22" t="s">
+        <v>55</v>
+      </c>
+      <c r="H22" t="s">
+        <v>60</v>
+      </c>
+      <c r="I22" t="s">
         <v>61</v>
       </c>
-      <c r="F22">
-        <v>3</v>
-      </c>
-      <c r="G22" t="s">
-        <v>57</v>
-      </c>
-      <c r="H22" t="s">
-        <v>65</v>
-      </c>
-      <c r="I22" t="s">
-        <v>66</v>
-      </c>
-      <c r="J22" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(I22,Sheet1!E$1:F$43,2,FALSE),"")</f>
-        <v>https://doi.org/10.5281/zenodo.10926780</v>
+      <c r="J22" t="s">
+        <v>357</v>
       </c>
       <c r="K22" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B23" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C23" t="s">
-        <v>21</v>
-      </c>
-      <c r="D23" t="s">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G23" t="s">
-        <v>23</v>
-      </c>
-      <c r="J23" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(I23,Sheet1!E$1:F$43,2,FALSE),"")</f>
-        <v/>
+        <v>55</v>
+      </c>
+      <c r="H23" t="s">
+        <v>63</v>
+      </c>
+      <c r="I23" t="s">
+        <v>64</v>
+      </c>
+      <c r="J23" t="s">
+        <v>360</v>
+      </c>
+      <c r="K23" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B24" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="C24" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D24" t="s">
-        <v>47</v>
-      </c>
-      <c r="E24" t="s">
-        <v>300</v>
+        <v>21</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24" t="s">
-        <v>41</v>
-      </c>
-      <c r="J24" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(I24,Sheet1!E$1:F$43,2,FALSE),"")</f>
-        <v/>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B25" t="s">
-        <v>68</v>
+        <v>66</v>
+      </c>
+      <c r="C25" t="s">
+        <v>23</v>
+      </c>
+      <c r="D25" t="s">
+        <v>45</v>
+      </c>
+      <c r="E25" t="s">
+        <v>298</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25" t="s">
-        <v>41</v>
-      </c>
-      <c r="H25" t="s">
-        <v>69</v>
-      </c>
-      <c r="I25" t="s">
-        <v>70</v>
-      </c>
-      <c r="J25" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(I25,Sheet1!E$1:F$43,2,FALSE),"")</f>
-        <v>https://doi.org/10.5281/zenodo.10926863</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B26" t="s">
+        <v>66</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26" t="s">
+        <v>39</v>
+      </c>
+      <c r="H26" t="s">
+        <v>67</v>
+      </c>
+      <c r="I26" t="s">
         <v>68</v>
       </c>
-      <c r="F26">
-        <v>2</v>
-      </c>
-      <c r="G26" t="s">
-        <v>41</v>
-      </c>
-      <c r="H26" t="s">
-        <v>53</v>
-      </c>
-      <c r="I26" t="s">
-        <v>71</v>
-      </c>
-      <c r="J26" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(I26,Sheet1!E$1:F$43,2,FALSE),"")</f>
-        <v>https://doi.org/10.5281/zenodo.10897750</v>
+      <c r="J26" t="s">
+        <v>369</v>
       </c>
       <c r="L26">
         <v>1</v>
@@ -2917,26 +3060,25 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G27" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H27" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="I27" t="s">
-        <v>73</v>
-      </c>
-      <c r="J27" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(I27,Sheet1!E$1:F$43,2,FALSE),"")</f>
-        <v>https://doi.org/10.5281/zenodo.10897792</v>
+        <v>69</v>
+      </c>
+      <c r="J27" t="s">
+        <v>317</v>
       </c>
       <c r="L27">
         <v>1</v>
@@ -2944,2142 +3086,2012 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B28" t="s">
-        <v>68</v>
-      </c>
-      <c r="C28" t="s">
-        <v>24</v>
-      </c>
-      <c r="D28" t="s">
-        <v>56</v>
-      </c>
-      <c r="E28" t="s">
-        <v>301</v>
+        <v>66</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G28" t="s">
-        <v>57</v>
-      </c>
-      <c r="J28" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(I28,Sheet1!E$1:F$43,2,FALSE),"")</f>
-        <v/>
+        <v>39</v>
+      </c>
+      <c r="H28" t="s">
+        <v>70</v>
+      </c>
+      <c r="I28" t="s">
+        <v>71</v>
+      </c>
+      <c r="J28" t="s">
+        <v>331</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>68</v>
+        <v>66</v>
+      </c>
+      <c r="C29" t="s">
+        <v>23</v>
+      </c>
+      <c r="D29" t="s">
+        <v>54</v>
+      </c>
+      <c r="E29" t="s">
+        <v>299</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29" t="s">
-        <v>57</v>
-      </c>
-      <c r="H29" t="s">
-        <v>74</v>
-      </c>
-      <c r="I29" t="s">
-        <v>75</v>
-      </c>
-      <c r="J29" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(I29,Sheet1!E$1:F$43,2,FALSE),"")</f>
-        <v>https://doi.org/10.5281/zenodo.10927659</v>
-      </c>
-      <c r="K29" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>68</v>
-      </c>
-      <c r="C30" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="F30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G30" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H30" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="I30" t="s">
-        <v>78</v>
-      </c>
-      <c r="J30" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(I30,Sheet1!E$1:F$43,2,FALSE),"")</f>
-        <v/>
+        <v>73</v>
+      </c>
+      <c r="J30" t="s">
+        <v>391</v>
       </c>
       <c r="K30" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C31" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G31" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H31" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="I31" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="J31" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(I31,Sheet1!E$1:F$43,2,FALSE),"")</f>
-        <v/>
+        <f>_xlfn.IFNA(VLOOKUP(I31,Sheet2!E$1:F$60,2,FALSE),"")</f>
+        <v>https://doi.org/10.5281/zenodo.10935879</v>
       </c>
       <c r="K31" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="C32" t="s">
-        <v>84</v>
-      </c>
-      <c r="D32" t="s">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="F32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G32" t="s">
-        <v>23</v>
+        <v>55</v>
+      </c>
+      <c r="H32" t="s">
+        <v>78</v>
+      </c>
+      <c r="I32" t="s">
+        <v>79</v>
       </c>
       <c r="J32" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(I32,Sheet1!E$1:F$43,2,FALSE),"")</f>
-        <v/>
+        <f>_xlfn.IFNA(VLOOKUP(I32,Sheet2!E$1:F$60,2,FALSE),"")</f>
+        <v>https://doi.org/10.5281/zenodo.10935620</v>
+      </c>
+      <c r="K32" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B33" t="s">
+        <v>81</v>
+      </c>
+      <c r="C33" t="s">
+        <v>82</v>
+      </c>
+      <c r="D33" t="s">
         <v>83</v>
       </c>
-      <c r="C33" t="s">
-        <v>86</v>
-      </c>
-      <c r="D33" t="s">
-        <v>87</v>
-      </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33" t="s">
-        <v>31</v>
-      </c>
-      <c r="J33" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(I33,Sheet1!E$1:F$43,2,FALSE),"")</f>
-        <v/>
+        <v>22</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>88</v>
+        <v>30</v>
       </c>
       <c r="B34" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C34" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D34" t="s">
-        <v>47</v>
-      </c>
-      <c r="E34" t="s">
-        <v>302</v>
+        <v>85</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34" t="s">
-        <v>41</v>
-      </c>
-      <c r="J34" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(I34,Sheet1!E$1:F$43,2,FALSE),"")</f>
-        <v/>
+        <v>29</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B35" t="s">
-        <v>89</v>
+        <v>499</v>
+      </c>
+      <c r="C35" t="s">
+        <v>502</v>
+      </c>
+      <c r="D35" t="s">
+        <v>501</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35" t="s">
-        <v>41</v>
-      </c>
-      <c r="H35" t="s">
-        <v>91</v>
-      </c>
-      <c r="I35" t="s">
-        <v>92</v>
-      </c>
-      <c r="J35" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(I35,Sheet1!E$1:F$43,2,FALSE),"")</f>
-        <v>https://doi.org/10.5281/zenodo.10897784</v>
-      </c>
-      <c r="K35" t="s">
-        <v>93</v>
+        <v>22</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
+        <v>86</v>
+      </c>
+      <c r="B36" t="s">
+        <v>87</v>
+      </c>
+      <c r="C36" t="s">
         <v>88</v>
       </c>
-      <c r="B36" t="s">
-        <v>89</v>
+      <c r="D36" t="s">
+        <v>45</v>
+      </c>
+      <c r="E36" t="s">
+        <v>300</v>
       </c>
       <c r="F36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G36" t="s">
-        <v>41</v>
-      </c>
-      <c r="H36" t="s">
-        <v>94</v>
-      </c>
-      <c r="I36" t="s">
-        <v>95</v>
-      </c>
-      <c r="J36" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(I36,Sheet1!E$1:F$43,2,FALSE),"")</f>
-        <v>https://doi.org/10.5281/zenodo.10926892</v>
-      </c>
-      <c r="K36" t="s">
-        <v>96</v>
+        <v>39</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B37" t="s">
+        <v>87</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37" t="s">
+        <v>39</v>
+      </c>
+      <c r="H37" t="s">
         <v>89</v>
       </c>
-      <c r="F37">
-        <v>3</v>
-      </c>
-      <c r="G37" t="s">
-        <v>41</v>
-      </c>
-      <c r="H37" t="s">
-        <v>35</v>
-      </c>
       <c r="I37" t="s">
-        <v>97</v>
-      </c>
-      <c r="J37" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(I37,Sheet1!E$1:F$43,2,FALSE),"")</f>
-        <v>https://doi.org/10.5281/zenodo.10927671</v>
-      </c>
-      <c r="L37">
-        <v>1</v>
+        <v>90</v>
+      </c>
+      <c r="J37" t="s">
+        <v>328</v>
+      </c>
+      <c r="K37" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B38" t="s">
-        <v>89</v>
-      </c>
-      <c r="C38" t="s">
-        <v>90</v>
-      </c>
-      <c r="D38" t="s">
-        <v>56</v>
-      </c>
-      <c r="E38" t="s">
-        <v>303</v>
+        <v>87</v>
       </c>
       <c r="F38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G38" t="s">
-        <v>57</v>
-      </c>
-      <c r="J38" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(I38,Sheet1!E$1:F$43,2,FALSE),"")</f>
-        <v/>
+        <v>39</v>
+      </c>
+      <c r="H38" t="s">
+        <v>92</v>
+      </c>
+      <c r="I38" t="s">
+        <v>93</v>
+      </c>
+      <c r="J38" t="s">
+        <v>375</v>
+      </c>
+      <c r="K38" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B39" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F39">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G39" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="H39" t="s">
-        <v>98</v>
+        <v>33</v>
       </c>
       <c r="I39" t="s">
-        <v>99</v>
-      </c>
-      <c r="J39" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(I39,Sheet1!E$1:F$43,2,FALSE),"")</f>
-        <v>https://doi.org/10.5281/zenodo.10931929</v>
-      </c>
-      <c r="K39" t="s">
-        <v>100</v>
+        <v>95</v>
+      </c>
+      <c r="J39" t="s">
+        <v>394</v>
+      </c>
+      <c r="L39">
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
+        <v>86</v>
+      </c>
+      <c r="B40" t="s">
+        <v>87</v>
+      </c>
+      <c r="C40" t="s">
         <v>88</v>
       </c>
-      <c r="B40" t="s">
-        <v>89</v>
-      </c>
-      <c r="C40" t="s">
-        <v>61</v>
+      <c r="D40" t="s">
+        <v>54</v>
+      </c>
+      <c r="E40" t="s">
+        <v>301</v>
       </c>
       <c r="F40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G40" t="s">
-        <v>57</v>
-      </c>
-      <c r="H40" t="s">
-        <v>101</v>
-      </c>
-      <c r="I40" t="s">
-        <v>102</v>
-      </c>
-      <c r="J40" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(I40,Sheet1!E$1:F$43,2,FALSE),"")</f>
-        <v>https://doi.org/10.5281/zenodo.10899420</v>
-      </c>
-      <c r="K40" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B41" t="s">
-        <v>89</v>
-      </c>
-      <c r="C41" t="s">
-        <v>61</v>
+        <v>87</v>
       </c>
       <c r="F41">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G41" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H41" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="I41" t="s">
-        <v>104</v>
-      </c>
-      <c r="J41" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(I41,Sheet1!E$1:F$43,2,FALSE),"")</f>
-        <v/>
+        <v>97</v>
+      </c>
+      <c r="J41" t="s">
+        <v>429</v>
       </c>
       <c r="K41" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B42" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C42" t="s">
-        <v>106</v>
-      </c>
-      <c r="D42" t="s">
-        <v>22</v>
-      </c>
-      <c r="E42" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G42" t="s">
-        <v>23</v>
-      </c>
-      <c r="J42" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(I42,Sheet1!E$1:F$43,2,FALSE),"")</f>
-        <v/>
+        <v>55</v>
+      </c>
+      <c r="H42" t="s">
+        <v>99</v>
+      </c>
+      <c r="I42" t="s">
+        <v>100</v>
+      </c>
+      <c r="J42" t="s">
+        <v>346</v>
+      </c>
+      <c r="K42" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B43" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="C43" t="s">
-        <v>108</v>
-      </c>
-      <c r="D43" t="s">
-        <v>47</v>
-      </c>
-      <c r="E43" t="s">
-        <v>304</v>
+        <v>59</v>
       </c>
       <c r="F43">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G43" t="s">
-        <v>41</v>
-      </c>
-      <c r="J43" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(I43,Sheet1!E$1:F$43,2,FALSE),"")</f>
-        <v/>
+        <v>55</v>
+      </c>
+      <c r="H43" t="s">
+        <v>101</v>
+      </c>
+      <c r="I43" t="s">
+        <v>102</v>
+      </c>
+      <c r="J43" t="s">
+        <v>400</v>
+      </c>
+      <c r="K43" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B44" t="s">
-        <v>107</v>
+        <v>87</v>
+      </c>
+      <c r="C44" t="s">
+        <v>104</v>
+      </c>
+      <c r="D44" t="s">
+        <v>21</v>
+      </c>
+      <c r="E44" t="s">
+        <v>59</v>
       </c>
       <c r="F44">
         <v>1</v>
       </c>
       <c r="G44" t="s">
-        <v>41</v>
-      </c>
-      <c r="H44" t="s">
-        <v>109</v>
-      </c>
-      <c r="I44" t="s">
-        <v>110</v>
-      </c>
-      <c r="J44" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(I44,Sheet1!E$1:F$43,2,FALSE),"")</f>
-        <v>https://doi.org/10.5281/zenodo.10926959</v>
-      </c>
-      <c r="K44" t="s">
-        <v>111</v>
+        <v>22</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B45" t="s">
-        <v>107</v>
+        <v>105</v>
+      </c>
+      <c r="C45" t="s">
+        <v>106</v>
+      </c>
+      <c r="D45" t="s">
+        <v>45</v>
+      </c>
+      <c r="E45" t="s">
+        <v>302</v>
       </c>
       <c r="F45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G45" t="s">
-        <v>41</v>
-      </c>
-      <c r="H45" t="s">
-        <v>112</v>
-      </c>
-      <c r="I45" t="s">
-        <v>113</v>
-      </c>
-      <c r="J45" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(I45,Sheet1!E$1:F$43,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="K45" t="s">
-        <v>114</v>
+        <v>39</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B46" t="s">
+        <v>105</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="G46" t="s">
+        <v>39</v>
+      </c>
+      <c r="H46" t="s">
         <v>107</v>
       </c>
-      <c r="F46">
-        <v>3</v>
-      </c>
-      <c r="G46" t="s">
-        <v>41</v>
-      </c>
-      <c r="H46" t="s">
-        <v>115</v>
-      </c>
       <c r="I46" t="s">
-        <v>116</v>
-      </c>
-      <c r="J46" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(I46,Sheet1!E$1:F$43,2,FALSE),"")</f>
-        <v>https://doi.org/10.5281/zenodo.10927987</v>
+        <v>108</v>
+      </c>
+      <c r="J46" t="s">
+        <v>382</v>
       </c>
       <c r="K46" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B47" t="s">
-        <v>107</v>
-      </c>
-      <c r="C47" t="s">
-        <v>108</v>
-      </c>
-      <c r="D47" t="s">
-        <v>56</v>
-      </c>
-      <c r="E47" t="s">
-        <v>305</v>
+        <v>105</v>
       </c>
       <c r="F47">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G47" t="s">
-        <v>57</v>
+        <v>39</v>
+      </c>
+      <c r="H47" t="s">
+        <v>110</v>
+      </c>
+      <c r="I47" t="s">
+        <v>111</v>
       </c>
       <c r="J47" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(I47,Sheet1!E$1:F$43,2,FALSE),"")</f>
-        <v/>
+        <f>_xlfn.IFNA(VLOOKUP(I47,Sheet2!E$1:F$60,2,FALSE),"")</f>
+        <v>https://doi.org/10.5281/zenodo.10935650</v>
+      </c>
+      <c r="K47" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B48" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F48">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G48" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="H48" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="I48" t="s">
-        <v>119</v>
-      </c>
-      <c r="J48" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(I48,Sheet1!E$1:F$43,2,FALSE),"")</f>
-        <v>https://doi.org/10.5281/zenodo.10931921</v>
+        <v>114</v>
+      </c>
+      <c r="J48" t="s">
+        <v>404</v>
       </c>
       <c r="K48" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B49" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C49" t="s">
-        <v>61</v>
+        <v>106</v>
+      </c>
+      <c r="D49" t="s">
+        <v>54</v>
+      </c>
+      <c r="E49" t="s">
+        <v>303</v>
       </c>
       <c r="F49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G49" t="s">
-        <v>57</v>
-      </c>
-      <c r="H49" t="s">
-        <v>121</v>
-      </c>
-      <c r="I49" t="s">
-        <v>122</v>
-      </c>
-      <c r="J49" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(I49,Sheet1!E$1:F$43,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="K49" t="s">
-        <v>96</v>
+        <v>55</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B50" t="s">
-        <v>107</v>
-      </c>
-      <c r="C50" t="s">
-        <v>61</v>
+        <v>105</v>
       </c>
       <c r="F50">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G50" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H50" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="I50" t="s">
-        <v>124</v>
-      </c>
-      <c r="J50" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(I50,Sheet1!E$1:F$43,2,FALSE),"")</f>
-        <v>https://doi.org/10.5281/zenodo.10887777</v>
+        <v>117</v>
+      </c>
+      <c r="J50" t="s">
+        <v>426</v>
       </c>
       <c r="K50" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B51" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C51" t="s">
-        <v>108</v>
-      </c>
-      <c r="D51" t="s">
-        <v>126</v>
-      </c>
-      <c r="E51" t="s">
-        <v>306</v>
+        <v>59</v>
       </c>
       <c r="F51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G51" t="s">
-        <v>16</v>
-      </c>
-      <c r="J51" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(I51,Sheet1!E$1:F$43,2,FALSE),"")</f>
-        <v/>
+        <v>55</v>
+      </c>
+      <c r="H51" t="s">
+        <v>119</v>
+      </c>
+      <c r="I51" t="s">
+        <v>120</v>
+      </c>
+      <c r="J51" t="s">
+        <v>497</v>
+      </c>
+      <c r="K51" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B52" t="s">
-        <v>107</v>
+        <v>105</v>
+      </c>
+      <c r="C52" t="s">
+        <v>59</v>
       </c>
       <c r="F52">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G52" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="H52" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="I52" t="s">
-        <v>128</v>
-      </c>
-      <c r="J52" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(I52,Sheet1!E$1:F$43,2,FALSE),"")</f>
-        <v/>
+        <v>122</v>
+      </c>
+      <c r="J52" t="s">
+        <v>313</v>
       </c>
       <c r="K52" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B53" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C53" t="s">
-        <v>61</v>
+        <v>106</v>
+      </c>
+      <c r="D53" t="s">
+        <v>124</v>
+      </c>
+      <c r="E53" t="s">
+        <v>304</v>
       </c>
       <c r="F53">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G53" t="s">
-        <v>16</v>
-      </c>
-      <c r="H53" t="s">
-        <v>130</v>
-      </c>
-      <c r="I53" t="s">
-        <v>131</v>
-      </c>
-      <c r="J53" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(I53,Sheet1!E$1:F$43,2,FALSE),"")</f>
-        <v>https://doi.org/10.5281/zenodo.10926048</v>
-      </c>
-      <c r="K53" t="s">
-        <v>132</v>
+        <v>15</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B54" t="s">
-        <v>107</v>
-      </c>
-      <c r="C54" t="s">
-        <v>61</v>
+        <v>105</v>
       </c>
       <c r="F54">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="G54" t="s">
+        <v>15</v>
       </c>
       <c r="H54" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="I54" t="s">
-        <v>133</v>
-      </c>
-      <c r="J54" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(I54,Sheet1!E$1:F$43,2,FALSE),"")</f>
-        <v/>
+        <v>126</v>
+      </c>
+      <c r="J54" t="s">
+        <v>497</v>
       </c>
       <c r="K54" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B55" t="s">
-        <v>134</v>
+        <v>105</v>
       </c>
       <c r="C55" t="s">
-        <v>135</v>
-      </c>
-      <c r="D55" t="s">
-        <v>136</v>
-      </c>
-      <c r="E55" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F55">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G55" t="s">
-        <v>23</v>
-      </c>
-      <c r="J55" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(I55,Sheet1!E$1:F$43,2,FALSE),"")</f>
-        <v/>
+        <v>15</v>
+      </c>
+      <c r="H55" t="s">
+        <v>128</v>
+      </c>
+      <c r="I55" t="s">
+        <v>129</v>
+      </c>
+      <c r="J55" t="s">
+        <v>349</v>
+      </c>
+      <c r="K55" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B56" t="s">
-        <v>134</v>
+        <v>105</v>
       </c>
       <c r="C56" t="s">
-        <v>42</v>
-      </c>
-      <c r="D56" t="s">
-        <v>137</v>
-      </c>
-      <c r="E56" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F56">
-        <v>1</v>
-      </c>
-      <c r="G56" t="s">
-        <v>41</v>
-      </c>
-      <c r="J56" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(I56,Sheet1!E$1:F$43,2,FALSE),"")</f>
-        <v/>
+        <v>3</v>
+      </c>
+      <c r="H56" t="s">
+        <v>131</v>
+      </c>
+      <c r="I56" t="s">
+        <v>131</v>
+      </c>
+      <c r="K56" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B57" t="s">
+        <v>132</v>
+      </c>
+      <c r="C57" t="s">
+        <v>133</v>
+      </c>
+      <c r="D57" t="s">
         <v>134</v>
       </c>
+      <c r="E57" t="s">
+        <v>59</v>
+      </c>
       <c r="F57">
         <v>1</v>
       </c>
       <c r="G57" t="s">
-        <v>41</v>
-      </c>
-      <c r="H57" t="s">
-        <v>138</v>
-      </c>
-      <c r="I57" t="s">
-        <v>139</v>
-      </c>
-      <c r="J57" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(I57,Sheet1!E$1:F$43,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="L57">
-        <v>1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B58" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="C58" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="D58" t="s">
-        <v>47</v>
+        <v>135</v>
       </c>
       <c r="E58" t="s">
-        <v>308</v>
+        <v>59</v>
       </c>
       <c r="F58">
         <v>1</v>
       </c>
       <c r="G58" t="s">
-        <v>41</v>
-      </c>
-      <c r="J58" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(I58,Sheet1!E$1:F$43,2,FALSE),"")</f>
-        <v/>
+        <v>39</v>
+      </c>
+      <c r="J58" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B59" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="F59">
         <v>1</v>
       </c>
       <c r="G59" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H59" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="I59" t="s">
-        <v>142</v>
-      </c>
-      <c r="J59" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(I59,Sheet1!E$1:F$43,2,FALSE),"")</f>
-        <v>https://doi.org/10.5281/zenodo.10931778</v>
-      </c>
-      <c r="K59" t="s">
-        <v>143</v>
+        <v>137</v>
+      </c>
+      <c r="L59">
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B60" t="s">
-        <v>140</v>
+        <v>138</v>
+      </c>
+      <c r="C60" t="s">
+        <v>16</v>
+      </c>
+      <c r="D60" t="s">
+        <v>45</v>
+      </c>
+      <c r="E60" t="s">
+        <v>306</v>
       </c>
       <c r="F60">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G60" t="s">
-        <v>41</v>
-      </c>
-      <c r="H60" t="s">
-        <v>144</v>
-      </c>
-      <c r="I60" t="s">
-        <v>145</v>
-      </c>
-      <c r="J60" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(I60,Sheet1!E$1:F$43,2,FALSE),"")</f>
-        <v>https://doi.org/10.5281/zenodo.10931940</v>
-      </c>
-      <c r="K60" t="s">
-        <v>146</v>
+        <v>39</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B61" t="s">
+        <v>138</v>
+      </c>
+      <c r="F61">
+        <v>1</v>
+      </c>
+      <c r="G61" t="s">
+        <v>39</v>
+      </c>
+      <c r="H61" t="s">
+        <v>139</v>
+      </c>
+      <c r="I61" t="s">
         <v>140</v>
       </c>
-      <c r="F61">
-        <v>3</v>
-      </c>
-      <c r="G61" t="s">
-        <v>41</v>
-      </c>
-      <c r="H61" t="s">
-        <v>147</v>
-      </c>
-      <c r="I61" t="s">
-        <v>148</v>
-      </c>
-      <c r="J61" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(I61,Sheet1!E$1:F$43,2,FALSE),"")</f>
-        <v/>
+      <c r="J61" t="s">
+        <v>423</v>
       </c>
       <c r="K61" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B62" t="s">
-        <v>140</v>
-      </c>
-      <c r="C62" t="s">
-        <v>17</v>
-      </c>
-      <c r="D62" t="s">
-        <v>56</v>
-      </c>
-      <c r="E62" t="s">
-        <v>307</v>
+        <v>138</v>
       </c>
       <c r="F62">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G62" t="s">
-        <v>57</v>
-      </c>
-      <c r="J62" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(I62,Sheet1!E$1:F$43,2,FALSE),"")</f>
-        <v/>
+        <v>39</v>
+      </c>
+      <c r="H62" t="s">
+        <v>142</v>
+      </c>
+      <c r="I62" t="s">
+        <v>143</v>
+      </c>
+      <c r="J62" t="s">
+        <v>432</v>
+      </c>
+      <c r="K62" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B63" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F63">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G63" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="H63" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="I63" t="s">
-        <v>151</v>
-      </c>
-      <c r="J63" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(I63,Sheet1!E$1:F$43,2,FALSE),"")</f>
-        <v>https://doi.org/10.5281/zenodo.10931950</v>
+        <v>146</v>
+      </c>
+      <c r="J63" t="s">
+        <v>497</v>
       </c>
       <c r="K63" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B64" t="s">
-        <v>140</v>
+        <v>138</v>
+      </c>
+      <c r="C64" t="s">
+        <v>16</v>
+      </c>
+      <c r="D64" t="s">
+        <v>54</v>
+      </c>
+      <c r="E64" t="s">
+        <v>305</v>
       </c>
       <c r="F64">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G64" t="s">
-        <v>57</v>
-      </c>
-      <c r="H64" t="s">
-        <v>153</v>
-      </c>
-      <c r="I64" t="s">
-        <v>154</v>
-      </c>
-      <c r="J64" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(I64,Sheet1!E$1:F$43,2,FALSE),"")</f>
-        <v>https://doi.org/10.5281/zenodo.10931749</v>
-      </c>
-      <c r="K64" t="s">
-        <v>155</v>
+        <v>55</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B65" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F65">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G65" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H65" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="I65" t="s">
-        <v>157</v>
-      </c>
-      <c r="J65" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(I65,Sheet1!E$1:F$43,2,FALSE),"")</f>
-        <v>https://doi.org/10.5281/zenodo.10897763</v>
+        <v>149</v>
+      </c>
+      <c r="J65" t="s">
+        <v>434</v>
       </c>
       <c r="K65" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B66" t="s">
-        <v>140</v>
-      </c>
-      <c r="C66" t="s">
-        <v>17</v>
-      </c>
-      <c r="D66" t="s">
-        <v>126</v>
-      </c>
-      <c r="E66" t="s">
-        <v>309</v>
+        <v>138</v>
       </c>
       <c r="F66">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G66" t="s">
-        <v>16</v>
-      </c>
-      <c r="J66" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(I66,Sheet1!E$1:F$43,2,FALSE),"")</f>
-        <v/>
+        <v>55</v>
+      </c>
+      <c r="H66" t="s">
+        <v>151</v>
+      </c>
+      <c r="I66" t="s">
+        <v>152</v>
+      </c>
+      <c r="J66" t="s">
+        <v>420</v>
+      </c>
+      <c r="K66" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B67" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F67">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G67" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="H67" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="I67" t="s">
-        <v>160</v>
-      </c>
-      <c r="J67" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(I67,Sheet1!E$1:F$43,2,FALSE),"")</f>
-        <v>https://doi.org/10.5281/zenodo.10931725</v>
+        <v>155</v>
+      </c>
+      <c r="J67" t="s">
+        <v>321</v>
       </c>
       <c r="K67" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B68" t="s">
-        <v>140</v>
+        <v>138</v>
+      </c>
+      <c r="C68" t="s">
+        <v>16</v>
+      </c>
+      <c r="D68" t="s">
+        <v>124</v>
+      </c>
+      <c r="E68" t="s">
+        <v>307</v>
       </c>
       <c r="F68">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G68" t="s">
-        <v>16</v>
-      </c>
-      <c r="H68" t="s">
-        <v>162</v>
-      </c>
-      <c r="I68" t="s">
-        <v>163</v>
-      </c>
-      <c r="J68" t="s">
-        <v>381</v>
-      </c>
-      <c r="K68" t="s">
-        <v>164</v>
+        <v>15</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B69" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F69">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G69" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H69" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="I69" t="s">
-        <v>166</v>
-      </c>
-      <c r="J69" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(I69,Sheet1!E$1:F$43,2,FALSE),"")</f>
-        <v>https://doi.org/10.5281/zenodo.10926876</v>
+        <v>158</v>
+      </c>
+      <c r="J69" t="s">
+        <v>414</v>
       </c>
       <c r="K69" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B70" t="s">
-        <v>140</v>
-      </c>
-      <c r="C70" t="s">
-        <v>21</v>
-      </c>
-      <c r="D70" t="s">
-        <v>22</v>
-      </c>
-      <c r="E70" t="s">
-        <v>61</v>
+        <v>138</v>
       </c>
       <c r="F70">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G70" t="s">
-        <v>23</v>
-      </c>
-      <c r="J70" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(I70,Sheet1!E$1:F$43,2,FALSE),"")</f>
-        <v/>
+        <v>15</v>
+      </c>
+      <c r="H70" t="s">
+        <v>160</v>
+      </c>
+      <c r="I70" t="s">
+        <v>161</v>
+      </c>
+      <c r="J70" t="s">
+        <v>378</v>
+      </c>
+      <c r="K70" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B71" t="s">
-        <v>168</v>
-      </c>
-      <c r="C71" t="s">
-        <v>24</v>
-      </c>
-      <c r="D71" t="s">
-        <v>47</v>
-      </c>
-      <c r="E71" t="s">
-        <v>315</v>
+        <v>138</v>
       </c>
       <c r="F71">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G71" t="s">
-        <v>41</v>
-      </c>
-      <c r="J71" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(I71,Sheet1!E$1:F$43,2,FALSE),"")</f>
-        <v/>
+        <v>15</v>
+      </c>
+      <c r="H71" t="s">
+        <v>163</v>
+      </c>
+      <c r="I71" t="s">
+        <v>164</v>
+      </c>
+      <c r="J71" t="s">
+        <v>372</v>
+      </c>
+      <c r="K71" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B72" t="s">
-        <v>168</v>
+        <v>138</v>
+      </c>
+      <c r="C72" t="s">
+        <v>20</v>
+      </c>
+      <c r="D72" t="s">
+        <v>21</v>
+      </c>
+      <c r="E72" t="s">
+        <v>59</v>
       </c>
       <c r="F72">
         <v>1</v>
       </c>
       <c r="G72" t="s">
-        <v>41</v>
-      </c>
-      <c r="H72" t="s">
-        <v>169</v>
-      </c>
-      <c r="I72" t="s">
-        <v>170</v>
-      </c>
-      <c r="J72" t="s">
-        <v>410</v>
-      </c>
-      <c r="K72" t="s">
-        <v>171</v>
+        <v>22</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B73" t="s">
-        <v>168</v>
+        <v>166</v>
+      </c>
+      <c r="C73" t="s">
+        <v>23</v>
+      </c>
+      <c r="D73" t="s">
+        <v>45</v>
+      </c>
+      <c r="E73" t="s">
+        <v>312</v>
       </c>
       <c r="F73">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G73" t="s">
-        <v>41</v>
-      </c>
-      <c r="H73" t="s">
-        <v>125</v>
-      </c>
-      <c r="I73" t="s">
-        <v>172</v>
-      </c>
-      <c r="J73" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(I73,Sheet1!E$1:F$43,2,FALSE),"")</f>
-        <v>https://doi.org/10.5281/zenodo.10887814</v>
-      </c>
-      <c r="K73" t="s">
-        <v>173</v>
+        <v>39</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B74" t="s">
+        <v>166</v>
+      </c>
+      <c r="F74">
+        <v>1</v>
+      </c>
+      <c r="G74" t="s">
+        <v>39</v>
+      </c>
+      <c r="H74" t="s">
+        <v>167</v>
+      </c>
+      <c r="I74" t="s">
         <v>168</v>
       </c>
-      <c r="F74">
-        <v>3</v>
-      </c>
-      <c r="H74" t="s">
-        <v>133</v>
-      </c>
-      <c r="I74" t="s">
-        <v>133</v>
-      </c>
-      <c r="J74" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(I74,Sheet1!E$1:F$43,2,FALSE),"")</f>
-        <v/>
+      <c r="J74" t="s">
+        <v>407</v>
       </c>
       <c r="K74" t="s">
-        <v>133</v>
+        <v>169</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B75" t="s">
-        <v>168</v>
-      </c>
-      <c r="C75" t="s">
-        <v>24</v>
-      </c>
-      <c r="D75" t="s">
-        <v>56</v>
-      </c>
-      <c r="E75" t="s">
-        <v>314</v>
+        <v>166</v>
       </c>
       <c r="F75">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G75" t="s">
-        <v>57</v>
-      </c>
-      <c r="J75" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(I75,Sheet1!E$1:F$43,2,FALSE),"")</f>
-        <v/>
+        <v>39</v>
+      </c>
+      <c r="H75" t="s">
+        <v>123</v>
+      </c>
+      <c r="I75" t="s">
+        <v>170</v>
+      </c>
+      <c r="J75" t="s">
+        <v>316</v>
+      </c>
+      <c r="K75" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B76" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F76">
-        <v>1</v>
-      </c>
-      <c r="G76" t="s">
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="H76" t="s">
-        <v>174</v>
+        <v>131</v>
       </c>
       <c r="I76" t="s">
-        <v>175</v>
-      </c>
-      <c r="J76" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(I76,Sheet1!E$1:F$43,2,FALSE),"")</f>
-        <v>https://doi.org/10.5281/zenodo.10931742</v>
+        <v>131</v>
       </c>
       <c r="K76" t="s">
-        <v>176</v>
+        <v>131</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B77" t="s">
-        <v>168</v>
+        <v>166</v>
+      </c>
+      <c r="C77" t="s">
+        <v>23</v>
+      </c>
+      <c r="D77" t="s">
+        <v>54</v>
+      </c>
+      <c r="E77" t="s">
+        <v>503</v>
       </c>
       <c r="F77">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G77" t="s">
-        <v>57</v>
-      </c>
-      <c r="H77" t="s">
-        <v>177</v>
-      </c>
-      <c r="I77" t="s">
-        <v>178</v>
-      </c>
-      <c r="J77" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(I77,Sheet1!E$1:F$43,2,FALSE),"")</f>
-        <v>https://doi.org/10.5281/zenodo.10926840</v>
-      </c>
-      <c r="K77" t="s">
-        <v>179</v>
+        <v>55</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B78" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F78">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G78" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H78" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="I78" t="s">
-        <v>181</v>
-      </c>
-      <c r="J78" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(I78,Sheet1!E$1:F$43,2,FALSE),"")</f>
-        <v>https://doi.org/10.5281/zenodo.10927655</v>
+        <v>173</v>
+      </c>
+      <c r="J78" t="s">
+        <v>417</v>
       </c>
       <c r="K78" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B79" t="s">
-        <v>83</v>
-      </c>
-      <c r="C79" t="s">
-        <v>183</v>
-      </c>
-      <c r="D79" t="s">
-        <v>184</v>
-      </c>
-      <c r="E79" t="s">
-        <v>61</v>
+        <v>166</v>
       </c>
       <c r="F79">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G79" t="s">
-        <v>31</v>
-      </c>
-      <c r="J79" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(I79,Sheet1!E$1:F$43,2,FALSE),"")</f>
-        <v/>
+        <v>55</v>
+      </c>
+      <c r="H79" t="s">
+        <v>175</v>
+      </c>
+      <c r="I79" t="s">
+        <v>176</v>
+      </c>
+      <c r="J79" t="s">
+        <v>366</v>
+      </c>
+      <c r="K79" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>185</v>
+        <v>86</v>
       </c>
       <c r="B80" t="s">
-        <v>186</v>
-      </c>
-      <c r="C80" t="s">
-        <v>90</v>
-      </c>
-      <c r="D80" t="s">
-        <v>47</v>
-      </c>
-      <c r="E80" t="s">
-        <v>313</v>
+        <v>166</v>
       </c>
       <c r="F80">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G80" t="s">
-        <v>41</v>
-      </c>
-      <c r="J80" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(I80,Sheet1!E$1:F$43,2,FALSE),"")</f>
-        <v/>
+        <v>55</v>
+      </c>
+      <c r="H80" t="s">
+        <v>178</v>
+      </c>
+      <c r="I80" t="s">
+        <v>179</v>
+      </c>
+      <c r="J80" t="s">
+        <v>388</v>
+      </c>
+      <c r="K80" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>185</v>
+        <v>86</v>
       </c>
       <c r="B81" t="s">
-        <v>186</v>
+        <v>81</v>
+      </c>
+      <c r="C81" t="s">
+        <v>181</v>
+      </c>
+      <c r="D81" t="s">
+        <v>182</v>
+      </c>
+      <c r="E81" t="s">
+        <v>59</v>
       </c>
       <c r="F81">
         <v>1</v>
       </c>
       <c r="G81" t="s">
-        <v>41</v>
-      </c>
-      <c r="H81" t="s">
-        <v>187</v>
-      </c>
-      <c r="I81" t="s">
-        <v>188</v>
-      </c>
-      <c r="J81" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(I81,Sheet1!E$1:F$43,2,FALSE),"")</f>
-        <v>https://doi.org/10.5281/zenodo.10927868</v>
-      </c>
-      <c r="K81" t="s">
-        <v>189</v>
+        <v>29</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B82" t="s">
-        <v>186</v>
+        <v>499</v>
+      </c>
+      <c r="C82" t="s">
+        <v>502</v>
+      </c>
+      <c r="D82" t="s">
+        <v>501</v>
       </c>
       <c r="F82">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G82" t="s">
-        <v>41</v>
-      </c>
-      <c r="H82" t="s">
-        <v>190</v>
-      </c>
-      <c r="I82" t="s">
-        <v>191</v>
-      </c>
-      <c r="J82" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(I82,Sheet1!E$1:F$43,2,FALSE),"")</f>
-        <v>https://doi.org/10.5281/zenodo.10926688</v>
-      </c>
-      <c r="K82" t="s">
-        <v>192</v>
+        <v>22</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B83" t="s">
-        <v>186</v>
+        <v>184</v>
+      </c>
+      <c r="C83" t="s">
+        <v>88</v>
+      </c>
+      <c r="D83" t="s">
+        <v>45</v>
+      </c>
+      <c r="E83" t="s">
+        <v>311</v>
       </c>
       <c r="F83">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G83" t="s">
-        <v>41</v>
-      </c>
-      <c r="H83" t="s">
-        <v>193</v>
-      </c>
-      <c r="I83" t="s">
-        <v>194</v>
-      </c>
-      <c r="J83" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(I83,Sheet1!E$1:F$43,2,FALSE),"")</f>
-        <v>https://doi.org/10.5281/zenodo.10899280</v>
-      </c>
-      <c r="K83" t="s">
-        <v>195</v>
+        <v>39</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
+        <v>183</v>
+      </c>
+      <c r="B84" t="s">
+        <v>184</v>
+      </c>
+      <c r="F84">
+        <v>1</v>
+      </c>
+      <c r="G84" t="s">
+        <v>39</v>
+      </c>
+      <c r="H84" t="s">
         <v>185</v>
       </c>
-      <c r="B84" t="s">
+      <c r="I84" t="s">
         <v>186</v>
       </c>
-      <c r="C84" t="s">
-        <v>90</v>
-      </c>
-      <c r="D84" t="s">
-        <v>56</v>
-      </c>
-      <c r="E84" t="s">
-        <v>312</v>
-      </c>
-      <c r="F84">
-        <v>1</v>
-      </c>
-      <c r="G84" t="s">
-        <v>57</v>
-      </c>
-      <c r="J84" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(I84,Sheet1!E$1:F$43,2,FALSE),"")</f>
-        <v/>
+      <c r="J84" t="s">
+        <v>397</v>
+      </c>
+      <c r="K84" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B85" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F85">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G85" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="H85" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="I85" t="s">
-        <v>197</v>
-      </c>
-      <c r="J85" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(I85,Sheet1!E$1:F$43,2,FALSE),"")</f>
-        <v/>
+        <v>189</v>
+      </c>
+      <c r="J85" t="s">
+        <v>354</v>
       </c>
       <c r="K85" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B86" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F86">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G86" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="H86" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="I86" t="s">
-        <v>200</v>
-      </c>
-      <c r="J86" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(I86,Sheet1!E$1:F$43,2,FALSE),"")</f>
-        <v>https://doi.org/10.5281/zenodo.10930867</v>
+        <v>192</v>
+      </c>
+      <c r="J86" t="s">
+        <v>340</v>
       </c>
       <c r="K86" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B87" t="s">
-        <v>186</v>
+        <v>184</v>
+      </c>
+      <c r="C87" t="s">
+        <v>88</v>
+      </c>
+      <c r="D87" t="s">
+        <v>54</v>
+      </c>
+      <c r="E87" t="s">
+        <v>310</v>
       </c>
       <c r="F87">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G87" t="s">
-        <v>57</v>
-      </c>
-      <c r="H87" t="s">
-        <v>202</v>
-      </c>
-      <c r="I87" t="s">
-        <v>203</v>
-      </c>
-      <c r="J87" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(I87,Sheet1!E$1:F$43,2,FALSE),"")</f>
-        <v>https://doi.org/10.5281/zenodo.10926672</v>
-      </c>
-      <c r="K87" t="s">
-        <v>204</v>
+        <v>55</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B88" t="s">
-        <v>186</v>
-      </c>
-      <c r="C88" t="s">
-        <v>106</v>
-      </c>
-      <c r="D88" t="s">
-        <v>22</v>
-      </c>
-      <c r="E88" t="s">
-        <v>61</v>
+        <v>184</v>
       </c>
       <c r="F88">
         <v>1</v>
       </c>
       <c r="G88" t="s">
-        <v>23</v>
+        <v>55</v>
+      </c>
+      <c r="H88" t="s">
+        <v>194</v>
+      </c>
+      <c r="I88" t="s">
+        <v>195</v>
       </c>
       <c r="J88" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(I88,Sheet1!E$1:F$43,2,FALSE),"")</f>
-        <v/>
+        <f>_xlfn.IFNA(VLOOKUP(I88,Sheet2!E$1:F$60,2,FALSE),"")</f>
+        <v>https://doi.org/10.5281/zenodo.10935875</v>
+      </c>
+      <c r="K88" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B89" t="s">
-        <v>205</v>
-      </c>
-      <c r="C89" t="s">
-        <v>108</v>
-      </c>
-      <c r="D89" t="s">
-        <v>47</v>
-      </c>
-      <c r="E89" t="s">
-        <v>311</v>
+        <v>184</v>
       </c>
       <c r="F89">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G89" t="s">
-        <v>41</v>
-      </c>
-      <c r="J89" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(I89,Sheet1!E$1:F$43,2,FALSE),"")</f>
-        <v/>
+        <v>55</v>
+      </c>
+      <c r="H89" t="s">
+        <v>197</v>
+      </c>
+      <c r="I89" t="s">
+        <v>198</v>
+      </c>
+      <c r="J89" t="s">
+        <v>411</v>
+      </c>
+      <c r="K89" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B90" t="s">
-        <v>205</v>
+        <v>184</v>
       </c>
       <c r="F90">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G90" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="H90" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="I90" t="s">
-        <v>207</v>
-      </c>
-      <c r="J90" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(I90,Sheet1!E$1:F$43,2,FALSE),"")</f>
-        <v>https://doi.org/10.5281/zenodo.10926802</v>
+        <v>201</v>
+      </c>
+      <c r="J90" t="s">
+        <v>352</v>
       </c>
       <c r="K90" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B91" t="s">
-        <v>205</v>
+        <v>184</v>
+      </c>
+      <c r="C91" t="s">
+        <v>104</v>
+      </c>
+      <c r="D91" t="s">
+        <v>21</v>
+      </c>
+      <c r="E91" t="s">
+        <v>59</v>
       </c>
       <c r="F91">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G91" t="s">
-        <v>41</v>
-      </c>
-      <c r="H91" t="s">
-        <v>209</v>
-      </c>
-      <c r="I91" t="s">
-        <v>210</v>
-      </c>
-      <c r="J91" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(I91,Sheet1!E$1:F$43,2,FALSE),"")</f>
-        <v>https://doi.org/10.5281/zenodo.10927599</v>
-      </c>
-      <c r="K91" t="s">
-        <v>211</v>
+        <v>22</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B92" t="s">
-        <v>205</v>
+        <v>203</v>
+      </c>
+      <c r="C92" t="s">
+        <v>106</v>
+      </c>
+      <c r="D92" t="s">
+        <v>45</v>
+      </c>
+      <c r="E92" t="s">
+        <v>309</v>
       </c>
       <c r="F92">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G92" t="s">
-        <v>41</v>
-      </c>
-      <c r="H92" t="s">
-        <v>212</v>
-      </c>
-      <c r="I92" t="s">
-        <v>213</v>
-      </c>
-      <c r="J92" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(I92,Sheet1!E$1:F$43,2,FALSE),"")</f>
-        <v>https://doi.org/10.5281/zenodo.10931961</v>
-      </c>
-      <c r="K92" t="s">
-        <v>214</v>
+        <v>39</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B93" t="s">
+        <v>203</v>
+      </c>
+      <c r="F93">
+        <v>1</v>
+      </c>
+      <c r="G93" t="s">
+        <v>39</v>
+      </c>
+      <c r="H93" t="s">
+        <v>204</v>
+      </c>
+      <c r="I93" t="s">
         <v>205</v>
       </c>
-      <c r="C93" t="s">
-        <v>108</v>
-      </c>
-      <c r="D93" t="s">
-        <v>56</v>
-      </c>
-      <c r="E93" t="s">
-        <v>310</v>
-      </c>
-      <c r="F93">
-        <v>1</v>
-      </c>
-      <c r="G93" t="s">
-        <v>57</v>
-      </c>
-      <c r="J93" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(I93,Sheet1!E$1:F$43,2,FALSE),"")</f>
-        <v/>
+      <c r="J93" t="s">
+        <v>363</v>
+      </c>
+      <c r="K93" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B94" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F94">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G94" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="H94" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="I94" t="s">
-        <v>215</v>
-      </c>
-      <c r="J94" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(I94,Sheet1!E$1:F$43,2,FALSE),"")</f>
-        <v>https://doi.org/10.5281/zenodo.10899260</v>
+        <v>208</v>
+      </c>
+      <c r="J94" t="s">
+        <v>385</v>
       </c>
       <c r="K94" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B95" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F95">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G95" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="H95" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="I95" t="s">
-        <v>218</v>
-      </c>
-      <c r="J95" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(I95,Sheet1!E$1:F$43,2,FALSE),"")</f>
-        <v/>
+        <v>211</v>
+      </c>
+      <c r="J95" t="s">
+        <v>437</v>
       </c>
       <c r="K95" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B96" t="s">
-        <v>205</v>
+        <v>203</v>
+      </c>
+      <c r="C96" t="s">
+        <v>106</v>
+      </c>
+      <c r="D96" t="s">
+        <v>54</v>
+      </c>
+      <c r="E96" t="s">
+        <v>308</v>
       </c>
       <c r="F96">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G96" t="s">
-        <v>57</v>
-      </c>
-      <c r="H96" t="s">
-        <v>220</v>
-      </c>
-      <c r="I96" t="s">
-        <v>221</v>
-      </c>
-      <c r="J96" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(I96,Sheet1!E$1:F$43,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="K96" t="s">
-        <v>222</v>
+        <v>55</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B97" t="s">
-        <v>205</v>
-      </c>
-      <c r="C97" t="s">
-        <v>223</v>
-      </c>
-      <c r="D97" t="s">
-        <v>22</v>
-      </c>
-      <c r="E97" t="s">
-        <v>61</v>
+        <v>203</v>
       </c>
       <c r="F97">
         <v>1</v>
       </c>
       <c r="G97" t="s">
-        <v>23</v>
-      </c>
-      <c r="J97" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(I97,Sheet1!E$1:F$43,2,FALSE),"")</f>
-        <v/>
+        <v>55</v>
+      </c>
+      <c r="H97" t="s">
+        <v>196</v>
+      </c>
+      <c r="I97" t="s">
+        <v>213</v>
+      </c>
+      <c r="J97" t="s">
+        <v>334</v>
+      </c>
+      <c r="K97" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B98" t="s">
-        <v>224</v>
-      </c>
-      <c r="C98" t="s">
-        <v>225</v>
-      </c>
-      <c r="D98" t="s">
-        <v>226</v>
-      </c>
-      <c r="E98" t="s">
-        <v>61</v>
+        <v>203</v>
       </c>
       <c r="F98">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G98" t="s">
-        <v>41</v>
-      </c>
-      <c r="J98" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(I98,Sheet1!E$1:F$43,2,FALSE),"")</f>
-        <v/>
+        <v>55</v>
+      </c>
+      <c r="H98" t="s">
+        <v>215</v>
+      </c>
+      <c r="I98" t="s">
+        <v>216</v>
+      </c>
+      <c r="J98" t="s">
+        <v>497</v>
+      </c>
+      <c r="K98" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B99" t="s">
-        <v>224</v>
+        <v>203</v>
       </c>
       <c r="F99">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G99" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="H99" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="I99" t="s">
-        <v>45</v>
-      </c>
-      <c r="J99" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(I99,Sheet1!E$1:F$43,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="L99">
-        <v>1</v>
+        <v>219</v>
+      </c>
+      <c r="J99" t="s">
+        <v>497</v>
+      </c>
+      <c r="K99" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B100" t="s">
-        <v>224</v>
+        <v>203</v>
       </c>
       <c r="C100" t="s">
-        <v>40</v>
+        <v>221</v>
       </c>
       <c r="D100" t="s">
-        <v>228</v>
+        <v>21</v>
       </c>
       <c r="E100" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F100">
         <v>1</v>
       </c>
       <c r="G100" t="s">
-        <v>41</v>
-      </c>
-      <c r="J100" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(I100,Sheet1!E$1:F$43,2,FALSE),"")</f>
-        <v/>
+        <v>22</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>229</v>
+        <v>183</v>
       </c>
       <c r="B101" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="C101" t="s">
-        <v>135</v>
+        <v>223</v>
       </c>
       <c r="D101" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="E101" t="s">
-        <v>231</v>
-      </c>
-      <c r="H101" t="s">
-        <v>232</v>
-      </c>
-      <c r="I101" t="s">
-        <v>233</v>
-      </c>
-      <c r="K101" t="s">
-        <v>234</v>
+        <v>59</v>
+      </c>
+      <c r="F101">
+        <v>1</v>
+      </c>
+      <c r="G101" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>229</v>
+        <v>183</v>
       </c>
       <c r="B102" t="s">
-        <v>230</v>
+        <v>222</v>
+      </c>
+      <c r="F102">
+        <v>1</v>
+      </c>
+      <c r="G102" t="s">
+        <v>39</v>
       </c>
       <c r="H102" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="I102" t="s">
-        <v>236</v>
-      </c>
-      <c r="K102" t="s">
-        <v>237</v>
+        <v>43</v>
+      </c>
+      <c r="J102" t="s">
+        <v>497</v>
+      </c>
+      <c r="L102">
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>229</v>
+        <v>183</v>
       </c>
       <c r="B103" t="s">
-        <v>230</v>
-      </c>
-      <c r="H103" t="s">
-        <v>238</v>
-      </c>
-      <c r="I103" t="s">
-        <v>239</v>
-      </c>
-      <c r="K103" t="s">
-        <v>240</v>
+        <v>222</v>
+      </c>
+      <c r="C103" t="s">
+        <v>38</v>
+      </c>
+      <c r="D103" t="s">
+        <v>226</v>
+      </c>
+      <c r="E103" t="s">
+        <v>59</v>
+      </c>
+      <c r="F103">
+        <v>1</v>
+      </c>
+      <c r="G103" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>229</v>
+        <v>183</v>
       </c>
       <c r="B104" t="s">
-        <v>230</v>
-      </c>
-      <c r="H104" t="s">
-        <v>241</v>
-      </c>
-      <c r="I104" t="s">
-        <v>242</v>
-      </c>
-      <c r="K104" t="s">
-        <v>243</v>
+        <v>222</v>
+      </c>
+      <c r="C104" t="s">
+        <v>504</v>
+      </c>
+      <c r="D104" t="s">
+        <v>505</v>
+      </c>
+      <c r="E104" t="s">
+        <v>59</v>
+      </c>
+      <c r="F104">
+        <v>1</v>
+      </c>
+      <c r="G104" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
+        <v>227</v>
+      </c>
+      <c r="B105" t="s">
+        <v>228</v>
+      </c>
+      <c r="C105" t="s">
+        <v>133</v>
+      </c>
+      <c r="D105" t="s">
         <v>229</v>
       </c>
-      <c r="B105" t="s">
+      <c r="E105" t="s">
+        <v>229</v>
+      </c>
+      <c r="H105" t="s">
         <v>230</v>
       </c>
-      <c r="H105" t="s">
-        <v>244</v>
-      </c>
       <c r="I105" t="s">
-        <v>245</v>
-      </c>
-      <c r="L105">
-        <v>1</v>
+        <v>231</v>
+      </c>
+      <c r="K105" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B106" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="H106" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="I106" t="s">
-        <v>247</v>
-      </c>
-      <c r="L106">
-        <v>1</v>
+        <v>234</v>
+      </c>
+      <c r="K106" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B107" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="H107" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="I107" t="s">
-        <v>249</v>
-      </c>
-      <c r="L107">
-        <v>1</v>
+        <v>237</v>
+      </c>
+      <c r="K107" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B108" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="H108" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="I108" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="K108" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B109" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="H109" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="I109" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="L109">
         <v>1</v>
@@ -5087,33 +5099,33 @@
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B110" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="H110" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="I110" t="s">
-        <v>256</v>
-      </c>
-      <c r="K110" t="s">
-        <v>257</v>
+        <v>245</v>
+      </c>
+      <c r="L110">
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B111" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="H111" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="I111" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="L111">
         <v>1</v>
@@ -5121,67 +5133,67 @@
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B112" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="H112" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="I112" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="K112" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B113" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="H113" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="I113" t="s">
-        <v>264</v>
-      </c>
-      <c r="K113" t="s">
-        <v>96</v>
+        <v>252</v>
+      </c>
+      <c r="L113">
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B114" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="H114" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="I114" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="K114" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B115" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="H115" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="I115" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="L115">
         <v>1</v>
@@ -5189,172 +5201,240 @@
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B116" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="H116" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="I116" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="K116" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B117" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="H117" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="I117" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="K117" t="s">
-        <v>275</v>
+        <v>94</v>
       </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B118" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="H118" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="I118" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="K118" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B119" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="H119" t="s">
-        <v>279</v>
+        <v>266</v>
       </c>
       <c r="I119" t="s">
-        <v>280</v>
-      </c>
-      <c r="K119" t="s">
-        <v>281</v>
+        <v>267</v>
+      </c>
+      <c r="L119">
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B120" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="H120" t="s">
-        <v>282</v>
+        <v>268</v>
       </c>
       <c r="I120" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
       <c r="K120" t="s">
-        <v>284</v>
+        <v>270</v>
       </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B121" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="H121" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="I121" t="s">
-        <v>286</v>
+        <v>272</v>
       </c>
       <c r="K121" t="s">
-        <v>161</v>
+        <v>273</v>
       </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B122" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="H122" t="s">
-        <v>287</v>
+        <v>274</v>
       </c>
       <c r="I122" t="s">
-        <v>288</v>
+        <v>275</v>
       </c>
       <c r="K122" t="s">
-        <v>289</v>
+        <v>276</v>
       </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B123" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="H123" t="s">
-        <v>290</v>
+        <v>277</v>
       </c>
       <c r="I123" t="s">
-        <v>291</v>
+        <v>278</v>
       </c>
       <c r="K123" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B124" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="H124" t="s">
-        <v>293</v>
+        <v>280</v>
       </c>
       <c r="I124" t="s">
-        <v>294</v>
+        <v>281</v>
       </c>
       <c r="K124" t="s">
-        <v>295</v>
+        <v>282</v>
       </c>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B125" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="H125" t="s">
-        <v>296</v>
+        <v>283</v>
       </c>
       <c r="I125" t="s">
-        <v>297</v>
+        <v>284</v>
       </c>
       <c r="K125" t="s">
-        <v>176</v>
+        <v>159</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>227</v>
+      </c>
+      <c r="B126" t="s">
+        <v>228</v>
+      </c>
+      <c r="H126" t="s">
+        <v>285</v>
+      </c>
+      <c r="I126" t="s">
+        <v>286</v>
+      </c>
+      <c r="K126" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>227</v>
+      </c>
+      <c r="B127" t="s">
+        <v>228</v>
+      </c>
+      <c r="H127" t="s">
+        <v>288</v>
+      </c>
+      <c r="I127" t="s">
+        <v>289</v>
+      </c>
+      <c r="K127" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>227</v>
+      </c>
+      <c r="B128" t="s">
+        <v>228</v>
+      </c>
+      <c r="H128" t="s">
+        <v>291</v>
+      </c>
+      <c r="I128" t="s">
+        <v>292</v>
+      </c>
+      <c r="K128" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>227</v>
+      </c>
+      <c r="B129" t="s">
+        <v>228</v>
+      </c>
+      <c r="H129" t="s">
+        <v>294</v>
+      </c>
+      <c r="I129" t="s">
+        <v>295</v>
+      </c>
+      <c r="K129" t="s">
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -5363,11 +5443,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5377,19 +5457,19 @@
         <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C1" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="D1" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="E1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F1" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -5397,19 +5477,19 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C2" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="D2" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="E2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F2" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -5417,19 +5497,19 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C3" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="D3" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="E3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F3" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -5437,19 +5517,19 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C4" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="D4" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="E4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F4" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -5457,19 +5537,19 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C5" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="D5" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="E5" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F5" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -5477,19 +5557,19 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
+        <v>324</v>
+      </c>
+      <c r="C6" t="s">
+        <v>325</v>
+      </c>
+      <c r="D6" t="s">
+        <v>326</v>
+      </c>
+      <c r="E6" t="s">
         <v>327</v>
       </c>
-      <c r="C6" t="s">
-        <v>328</v>
-      </c>
-      <c r="D6" t="s">
-        <v>329</v>
-      </c>
-      <c r="E6" t="s">
-        <v>330</v>
-      </c>
       <c r="F6" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -5497,19 +5577,19 @@
         <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C7" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="D7" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="E7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F7" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -5517,19 +5597,19 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C8" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="D8" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="E8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F8" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -5537,19 +5617,19 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C9" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="D9" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="E9" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F9" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -5557,19 +5637,19 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C10" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="D10" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="E10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F10" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -5577,19 +5657,19 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="C11" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="D11" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="E11" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F11" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -5597,19 +5677,19 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C12" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="D12" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="E12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F12" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -5617,19 +5697,19 @@
         <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="C13" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="D13" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E13" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F13" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -5637,19 +5717,19 @@
         <v>29</v>
       </c>
       <c r="B14" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C14" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="D14" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E14" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F14" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -5657,19 +5737,19 @@
         <v>34</v>
       </c>
       <c r="B15" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C15" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="D15" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="E15" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F15" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -5677,19 +5757,19 @@
         <v>35</v>
       </c>
       <c r="B16" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="C16" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D16" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="E16" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F16" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -5697,19 +5777,19 @@
         <v>41</v>
       </c>
       <c r="B17" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C17" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="D17" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="E17" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F17" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -5717,19 +5797,19 @@
         <v>44</v>
       </c>
       <c r="B18" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C18" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="D18" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="E18" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F18" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -5737,19 +5817,19 @@
         <v>45</v>
       </c>
       <c r="B19" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C19" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="D19" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="E19" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F19" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -5757,19 +5837,19 @@
         <v>46</v>
       </c>
       <c r="B20" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="C20" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="D20" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="E20" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F20" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -5777,19 +5857,19 @@
         <v>47</v>
       </c>
       <c r="B21" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C21" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="D21" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="E21" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F21" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -5797,19 +5877,19 @@
         <v>49</v>
       </c>
       <c r="B22" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="C22" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="D22" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="E22" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F22" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -5817,19 +5897,19 @@
         <v>50</v>
       </c>
       <c r="B23" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="C23" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="D23" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="E23" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F23" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -5837,19 +5917,19 @@
         <v>51</v>
       </c>
       <c r="B24" t="s">
+        <v>378</v>
+      </c>
+      <c r="C24" t="s">
+        <v>379</v>
+      </c>
+      <c r="D24" t="s">
+        <v>380</v>
+      </c>
+      <c r="E24" t="s">
         <v>381</v>
       </c>
-      <c r="C24" t="s">
-        <v>382</v>
-      </c>
-      <c r="D24" t="s">
-        <v>383</v>
-      </c>
-      <c r="E24" t="s">
-        <v>384</v>
-      </c>
       <c r="F24" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
@@ -5857,19 +5937,19 @@
         <v>56</v>
       </c>
       <c r="B25" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="C25" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="D25" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="E25" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F25" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
@@ -5877,19 +5957,19 @@
         <v>58</v>
       </c>
       <c r="B26" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="C26" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="D26" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="E26" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F26" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
@@ -5897,19 +5977,19 @@
         <v>59</v>
       </c>
       <c r="B27" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="C27" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="D27" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="E27" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F27" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
@@ -5917,19 +5997,19 @@
         <v>60</v>
       </c>
       <c r="B28" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="C28" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="D28" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="E28" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F28" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
@@ -5937,19 +6017,19 @@
         <v>61</v>
       </c>
       <c r="B29" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="C29" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="D29" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="E29" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F29" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
@@ -5957,19 +6037,19 @@
         <v>62</v>
       </c>
       <c r="B30" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="C30" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="D30" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="E30" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F30" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
@@ -5977,19 +6057,19 @@
         <v>67</v>
       </c>
       <c r="B31" t="s">
+        <v>400</v>
+      </c>
+      <c r="C31" t="s">
+        <v>401</v>
+      </c>
+      <c r="D31" t="s">
+        <v>402</v>
+      </c>
+      <c r="E31" t="s">
         <v>403</v>
       </c>
-      <c r="C31" t="s">
-        <v>404</v>
-      </c>
-      <c r="D31" t="s">
-        <v>405</v>
-      </c>
-      <c r="E31" t="s">
-        <v>406</v>
-      </c>
       <c r="F31" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
@@ -5997,19 +6077,19 @@
         <v>69</v>
       </c>
       <c r="B32" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="C32" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="D32" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="E32" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F32" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
@@ -6017,19 +6097,19 @@
         <v>70</v>
       </c>
       <c r="B33" t="s">
+        <v>407</v>
+      </c>
+      <c r="C33" t="s">
+        <v>408</v>
+      </c>
+      <c r="D33" t="s">
+        <v>409</v>
+      </c>
+      <c r="E33" t="s">
         <v>410</v>
       </c>
-      <c r="C33" t="s">
-        <v>411</v>
-      </c>
-      <c r="D33" t="s">
-        <v>412</v>
-      </c>
-      <c r="E33" t="s">
-        <v>413</v>
-      </c>
       <c r="F33" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
@@ -6037,19 +6117,19 @@
         <v>75</v>
       </c>
       <c r="B34" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="C34" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="D34" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="E34" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F34" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
@@ -6057,19 +6137,19 @@
         <v>78</v>
       </c>
       <c r="B35" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="C35" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="D35" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="E35" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F35" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
@@ -6077,19 +6157,19 @@
         <v>80</v>
       </c>
       <c r="B36" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="C36" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="D36" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="E36" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F36" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
@@ -6097,19 +6177,19 @@
         <v>83</v>
       </c>
       <c r="B37" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="C37" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="D37" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="E37" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F37" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
@@ -6117,19 +6197,19 @@
         <v>84</v>
       </c>
       <c r="B38" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="C38" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="D38" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="E38" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F38" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
@@ -6137,19 +6217,19 @@
         <v>85</v>
       </c>
       <c r="B39" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="C39" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="D39" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="E39" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F39" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
@@ -6157,19 +6237,19 @@
         <v>86</v>
       </c>
       <c r="B40" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="C40" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="D40" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="E40" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F40" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
@@ -6177,19 +6257,19 @@
         <v>87</v>
       </c>
       <c r="B41" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="C41" t="s">
+        <v>430</v>
+      </c>
+      <c r="D41" t="s">
         <v>433</v>
       </c>
-      <c r="D41" t="s">
-        <v>436</v>
-      </c>
       <c r="E41" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F41" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
@@ -6197,19 +6277,19 @@
         <v>91</v>
       </c>
       <c r="B42" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C42" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="D42" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="E42" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F42" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
@@ -6217,19 +6297,1795 @@
         <v>92</v>
       </c>
       <c r="B43" t="s">
+        <v>437</v>
+      </c>
+      <c r="C43" t="s">
+        <v>438</v>
+      </c>
+      <c r="D43" t="s">
+        <v>439</v>
+      </c>
+      <c r="E43" t="s">
+        <v>211</v>
+      </c>
+      <c r="F43" t="s">
+        <v>437</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9234287F-BD23-8E4A-89C1-FBF31606F655}">
+  <dimension ref="A1:F54"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
         <v>440</v>
       </c>
+      <c r="B1" t="s">
+        <v>441</v>
+      </c>
+      <c r="C1" t="s">
+        <v>442</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>314</v>
+      </c>
+      <c r="C2" t="s">
+        <v>315</v>
+      </c>
+      <c r="D2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E2" t="str">
+        <f>IF(ISNA(VLOOKUP(A2,Sheet1!A:F,5,FALSE)),D2,VLOOKUP(A2,Sheet1!A:F,5,FALSE))</f>
+        <v>Do good schools really push up property prices? Disentangling school and neighbourhood effects with empirical evidence from Brighton, England</v>
+      </c>
+      <c r="F2" t="str">
+        <f>VLOOKUP(A2,Sheet3!A:B,2,FALSE)</f>
+        <v>https://doi.org/10.5281/zenodo.10887777</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>314</v>
+      </c>
+      <c r="C3" t="s">
+        <v>315</v>
+      </c>
+      <c r="D3" t="s">
+        <v>443</v>
+      </c>
+      <c r="E3" t="str">
+        <f>IF(ISNA(VLOOKUP(A3,Sheet1!A:F,5,FALSE)),D3,VLOOKUP(A3,Sheet1!A:F,5,FALSE))</f>
+        <v>From The Beer Orders to Last Orders –Legislation, Taxation and The Modern Beer Landscape of London</v>
+      </c>
+      <c r="F3" t="str">
+        <f>VLOOKUP(A3,Sheet3!A:B,2,FALSE)</f>
+        <v>https://doi.org/10.5281/zenodo.10887814</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>318</v>
+      </c>
+      <c r="C4" t="s">
+        <v>319</v>
+      </c>
+      <c r="D4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E4" t="str">
+        <f>IF(ISNA(VLOOKUP(A4,Sheet1!A:F,5,FALSE)),D4,VLOOKUP(A4,Sheet1!A:F,5,FALSE))</f>
+        <v>Evaluating Map Projections for Globe Production</v>
+      </c>
+      <c r="F4" t="str">
+        <f>VLOOKUP(A4,Sheet3!A:B,2,FALSE)</f>
+        <v>https://doi.org/10.5281/zenodo.10897750</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>318</v>
+      </c>
+      <c r="C5" t="s">
+        <v>319</v>
+      </c>
+      <c r="D5" t="s">
+        <v>444</v>
+      </c>
+      <c r="E5" t="str">
+        <f>IF(ISNA(VLOOKUP(A5,Sheet1!A:F,5,FALSE)),D5,VLOOKUP(A5,Sheet1!A:F,5,FALSE))</f>
+        <v>“The Great Blackbury Pie” ~ or ~ Focal Area Bias in Geographically Weighted Analysis</v>
+      </c>
+      <c r="F5" t="str">
+        <f>VLOOKUP(A5,Sheet3!A:B,2,FALSE)</f>
+        <v>https://doi.org/10.5281/zenodo.10897758</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>445</v>
+      </c>
+      <c r="C6" t="s">
+        <v>446</v>
+      </c>
+      <c r="D6" t="s">
+        <v>79</v>
+      </c>
+      <c r="E6" t="str">
+        <f>IF(ISNA(VLOOKUP(A6,Sheet1!A:F,5,FALSE)),D6,VLOOKUP(A6,Sheet1!A:F,5,FALSE))</f>
+        <v>Landscape Perceptions in the Lake District: Distant and Close Reading in Participatory GIS</v>
+      </c>
+      <c r="F6" t="str">
+        <f>VLOOKUP(A6,Sheet3!A:B,2,FALSE)</f>
+        <v>https://doi.org/10.5281/zenodo.10935620</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>322</v>
+      </c>
+      <c r="C7" t="s">
+        <v>323</v>
+      </c>
+      <c r="D7" t="s">
+        <v>155</v>
+      </c>
+      <c r="E7" t="str">
+        <f>IF(ISNA(VLOOKUP(A7,Sheet1!A:F,5,FALSE)),D7,VLOOKUP(A7,Sheet1!A:F,5,FALSE))</f>
+        <v>Deriving flow patterns from GPS in-app mobile phone data</v>
+      </c>
+      <c r="F7" t="str">
+        <f>VLOOKUP(A7,Sheet3!A:B,2,FALSE)</f>
+        <v>https://doi.org/10.5281/zenodo.10897763</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>325</v>
+      </c>
+      <c r="C8" t="s">
+        <v>326</v>
+      </c>
+      <c r="D8" t="s">
+        <v>327</v>
+      </c>
+      <c r="E8" t="str">
+        <f>IF(ISNA(VLOOKUP(A8,Sheet1!A:F,5,FALSE)),D8,VLOOKUP(A8,Sheet1!A:F,5,FALSE))</f>
+        <v>Leveraging advances in Language Models for neighbourhood delineation in the London housing market</v>
+      </c>
+      <c r="F8" t="str">
+        <f>VLOOKUP(A8,Sheet3!A:B,2,FALSE)</f>
+        <v>https://doi.org/10.5281/zenodo.10897775</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>329</v>
+      </c>
+      <c r="C9" t="s">
+        <v>330</v>
+      </c>
+      <c r="D9" t="s">
+        <v>90</v>
+      </c>
+      <c r="E9" t="str">
+        <f>IF(ISNA(VLOOKUP(A9,Sheet1!A:F,5,FALSE)),D9,VLOOKUP(A9,Sheet1!A:F,5,FALSE))</f>
+        <v>Bringing moral clarity to urban planning: Developing data-driven metrics of spatial justice for neighbourhood accessibility</v>
+      </c>
+      <c r="F9" t="str">
+        <f>VLOOKUP(A9,Sheet3!A:B,2,FALSE)</f>
+        <v>https://doi.org/10.5281/zenodo.10897784</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>332</v>
+      </c>
+      <c r="C10" t="s">
+        <v>333</v>
+      </c>
+      <c r="D10" t="s">
+        <v>71</v>
+      </c>
+      <c r="E10" t="str">
+        <f>IF(ISNA(VLOOKUP(A10,Sheet1!A:F,5,FALSE)),D10,VLOOKUP(A10,Sheet1!A:F,5,FALSE))</f>
+        <v>Extending the Moran scatterplot by indications of critical values and p-values: introducing the Moran seismogram and the drop plot</v>
+      </c>
+      <c r="F10" t="str">
+        <f>VLOOKUP(A10,Sheet3!A:B,2,FALSE)</f>
+        <v>https://doi.org/10.5281/zenodo.10897792</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
+        <v>335</v>
+      </c>
+      <c r="C11" t="s">
+        <v>336</v>
+      </c>
+      <c r="D11" t="s">
+        <v>213</v>
+      </c>
+      <c r="E11" t="str">
+        <f>IF(ISNA(VLOOKUP(A11,Sheet1!A:F,5,FALSE)),D11,VLOOKUP(A11,Sheet1!A:F,5,FALSE))</f>
+        <v>Interrogating the Spatio-Temporal Dynamics of Urban Footfall using Principal Component Analysis</v>
+      </c>
+      <c r="F11" t="str">
+        <f>VLOOKUP(A11,Sheet3!A:B,2,FALSE)</f>
+        <v>https://doi.org/10.5281/zenodo.10899260</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>18</v>
+      </c>
+      <c r="B12" t="s">
+        <v>338</v>
+      </c>
+      <c r="C12" t="s">
+        <v>339</v>
+      </c>
+      <c r="D12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" t="str">
+        <f>IF(ISNA(VLOOKUP(A12,Sheet1!A:F,5,FALSE)),D12,VLOOKUP(A12,Sheet1!A:F,5,FALSE))</f>
+        <v>Flexurba: an open-source R package to flexibly reconstruct the Degree of Urbanisation classification.</v>
+      </c>
+      <c r="F12" t="str">
+        <f>VLOOKUP(A12,Sheet3!A:B,2,FALSE)</f>
+        <v>https://doi.org/10.5281/zenodo.10899270</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>19</v>
+      </c>
+      <c r="B13" t="s">
+        <v>341</v>
+      </c>
+      <c r="C13" t="s">
+        <v>342</v>
+      </c>
+      <c r="D13" t="s">
+        <v>192</v>
+      </c>
+      <c r="E13" t="str">
+        <f>IF(ISNA(VLOOKUP(A13,Sheet1!A:F,5,FALSE)),D13,VLOOKUP(A13,Sheet1!A:F,5,FALSE))</f>
+        <v>Spatial Patterns of Tank Decline and Rejuvenation in the Kaveri River Catchment, South India</v>
+      </c>
+      <c r="F13" t="str">
+        <f>VLOOKUP(A13,Sheet3!A:B,2,FALSE)</f>
+        <v>https://doi.org/10.5281/zenodo.10899280</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>20</v>
+      </c>
+      <c r="B14" t="s">
+        <v>447</v>
+      </c>
+      <c r="C14" t="s">
+        <v>448</v>
+      </c>
+      <c r="D14" t="s">
+        <v>219</v>
+      </c>
+      <c r="E14" t="str">
+        <f>IF(ISNA(VLOOKUP(A14,Sheet1!A:F,5,FALSE)),D14,VLOOKUP(A14,Sheet1!A:F,5,FALSE))</f>
+        <v>Reproducible methods for network simplification for data visualisation and transport planning</v>
+      </c>
+      <c r="F14" t="e">
+        <f>VLOOKUP(A14,Sheet3!A:B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>21</v>
+      </c>
+      <c r="B15" t="s">
+        <v>344</v>
+      </c>
+      <c r="C15" t="s">
+        <v>345</v>
+      </c>
+      <c r="D15" t="s">
+        <v>57</v>
+      </c>
+      <c r="E15" t="str">
+        <f>IF(ISNA(VLOOKUP(A15,Sheet1!A:F,5,FALSE)),D15,VLOOKUP(A15,Sheet1!A:F,5,FALSE))</f>
+        <v>The Walkable Accessibility Score (WAS): A spatially-granular open-source measure of walkability for the continental US from 1997-2019</v>
+      </c>
+      <c r="F15" t="str">
+        <f>VLOOKUP(A15,Sheet3!A:B,2,FALSE)</f>
+        <v>https://doi.org/10.5281/zenodo.10899286</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>449</v>
+      </c>
+      <c r="C16" t="s">
+        <v>450</v>
+      </c>
+      <c r="D16" t="s">
+        <v>451</v>
+      </c>
+      <c r="E16" t="str">
+        <f>IF(ISNA(VLOOKUP(A16,Sheet1!A:F,5,FALSE)),D16,VLOOKUP(A16,Sheet1!A:F,5,FALSE))</f>
+        <v>Construction of Ecological Corridors in Karst Areas Based on Ecological Sensitivity and Ecological Service Value</v>
+      </c>
+      <c r="F16" t="e">
+        <f>VLOOKUP(A16,Sheet3!A:B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>24</v>
+      </c>
+      <c r="B17" t="s">
+        <v>347</v>
+      </c>
+      <c r="C17" t="s">
+        <v>348</v>
+      </c>
+      <c r="D17" t="s">
+        <v>100</v>
+      </c>
+      <c r="E17" t="str">
+        <f>IF(ISNA(VLOOKUP(A17,Sheet1!A:F,5,FALSE)),D17,VLOOKUP(A17,Sheet1!A:F,5,FALSE))</f>
+        <v>After the Twitter X-pocalypse: Approaches to Characterising Human Behaviour in Agent-based Models and Beyond</v>
+      </c>
+      <c r="F17" t="str">
+        <f>VLOOKUP(A17,Sheet3!A:B,2,FALSE)</f>
+        <v>https://doi.org/10.5281/zenodo.10899420</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>29</v>
+      </c>
+      <c r="B18" t="s">
+        <v>350</v>
+      </c>
+      <c r="C18" t="s">
+        <v>351</v>
+      </c>
+      <c r="D18" t="s">
+        <v>129</v>
+      </c>
+      <c r="E18" t="str">
+        <f>IF(ISNA(VLOOKUP(A18,Sheet1!A:F,5,FALSE)),D18,VLOOKUP(A18,Sheet1!A:F,5,FALSE))</f>
+        <v>Automatic detection of native invasive rush species with aerial imagery and deep learning</v>
+      </c>
+      <c r="F18" t="str">
+        <f>VLOOKUP(A18,Sheet3!A:B,2,FALSE)</f>
+        <v>https://doi.org/10.5281/zenodo.10926048</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>34</v>
+      </c>
+      <c r="B19" t="s">
+        <v>344</v>
+      </c>
+      <c r="C19" t="s">
+        <v>353</v>
+      </c>
+      <c r="D19" t="s">
+        <v>201</v>
+      </c>
+      <c r="E19" t="str">
+        <f>IF(ISNA(VLOOKUP(A19,Sheet1!A:F,5,FALSE)),D19,VLOOKUP(A19,Sheet1!A:F,5,FALSE))</f>
+        <v>Using a spatial statistical model to explore voting behaviour in the UK 2019 general election</v>
+      </c>
+      <c r="F19" t="str">
+        <f>VLOOKUP(A19,Sheet3!A:B,2,FALSE)</f>
+        <v>https://doi.org/10.5281/zenodo.10926672</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>35</v>
+      </c>
+      <c r="B20" t="s">
+        <v>355</v>
+      </c>
+      <c r="C20" t="s">
+        <v>356</v>
+      </c>
+      <c r="D20" t="s">
+        <v>189</v>
+      </c>
+      <c r="E20" t="str">
+        <f>IF(ISNA(VLOOKUP(A20,Sheet1!A:F,5,FALSE)),D20,VLOOKUP(A20,Sheet1!A:F,5,FALSE))</f>
+        <v>Closing the gap: a spatially targeted approach to water point rehabilitation in Tanzania</v>
+      </c>
+      <c r="F20" t="str">
+        <f>VLOOKUP(A20,Sheet3!A:B,2,FALSE)</f>
+        <v>https://doi.org/10.5281/zenodo.10926688</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>41</v>
+      </c>
+      <c r="B21" t="s">
+        <v>358</v>
+      </c>
+      <c r="C21" t="s">
+        <v>359</v>
+      </c>
+      <c r="D21" t="s">
+        <v>61</v>
+      </c>
+      <c r="E21" t="str">
+        <f>IF(ISNA(VLOOKUP(A21,Sheet1!A:F,5,FALSE)),D21,VLOOKUP(A21,Sheet1!A:F,5,FALSE))</f>
+        <v>Exploring the Spatial and Built Environmental Characteristics of Residential Solar Photovoltaic Implementations in Luxembourg</v>
+      </c>
+      <c r="F21" t="str">
+        <f>VLOOKUP(A21,Sheet3!A:B,2,FALSE)</f>
+        <v>https://doi.org/10.5281/zenodo.10926740</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>42</v>
+      </c>
+      <c r="B22" t="s">
+        <v>452</v>
+      </c>
+      <c r="C22" t="s">
+        <v>453</v>
+      </c>
+      <c r="D22" t="s">
+        <v>111</v>
+      </c>
+      <c r="E22" t="str">
+        <f>IF(ISNA(VLOOKUP(A22,Sheet1!A:F,5,FALSE)),D22,VLOOKUP(A22,Sheet1!A:F,5,FALSE))</f>
+        <v>A national assessment of park quality across Great Britain</v>
+      </c>
+      <c r="F22" t="str">
+        <f>VLOOKUP(A22,Sheet3!A:B,2,FALSE)</f>
+        <v>https://doi.org/10.5281/zenodo.10935650</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>44</v>
+      </c>
+      <c r="B23" t="s">
+        <v>361</v>
+      </c>
+      <c r="C23" t="s">
+        <v>362</v>
+      </c>
+      <c r="D23" t="s">
+        <v>64</v>
+      </c>
+      <c r="E23" t="str">
+        <f>IF(ISNA(VLOOKUP(A23,Sheet1!A:F,5,FALSE)),D23,VLOOKUP(A23,Sheet1!A:F,5,FALSE))</f>
+        <v>Towards a National Low Traffic Neighbourhood Dataset</v>
+      </c>
+      <c r="F23" t="str">
+        <f>VLOOKUP(A23,Sheet3!A:B,2,FALSE)</f>
+        <v>https://doi.org/10.5281/zenodo.10926780</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>45</v>
+      </c>
+      <c r="B24" t="s">
+        <v>364</v>
+      </c>
+      <c r="C24" t="s">
+        <v>365</v>
+      </c>
+      <c r="D24" t="s">
+        <v>205</v>
+      </c>
+      <c r="E24" t="str">
+        <f>IF(ISNA(VLOOKUP(A24,Sheet1!A:F,5,FALSE)),D24,VLOOKUP(A24,Sheet1!A:F,5,FALSE))</f>
+        <v>From Birmingham to the West Midlands: Scaling up climate risk and vulnerability mapping</v>
+      </c>
+      <c r="F24" t="str">
+        <f>VLOOKUP(A24,Sheet3!A:B,2,FALSE)</f>
+        <v>https://doi.org/10.5281/zenodo.10926802</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>46</v>
+      </c>
+      <c r="B25" t="s">
+        <v>367</v>
+      </c>
+      <c r="C25" t="s">
+        <v>368</v>
+      </c>
+      <c r="D25" t="s">
+        <v>176</v>
+      </c>
+      <c r="E25" t="str">
+        <f>IF(ISNA(VLOOKUP(A25,Sheet1!A:F,5,FALSE)),D25,VLOOKUP(A25,Sheet1!A:F,5,FALSE))</f>
+        <v>Creating a national classification of the level of bus service provision: A case study of Wales</v>
+      </c>
+      <c r="F25" t="str">
+        <f>VLOOKUP(A25,Sheet3!A:B,2,FALSE)</f>
+        <v>https://doi.org/10.5281/zenodo.10926840</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>47</v>
+      </c>
+      <c r="B26" t="s">
+        <v>370</v>
+      </c>
+      <c r="C26" t="s">
+        <v>371</v>
+      </c>
+      <c r="D26" t="s">
+        <v>68</v>
+      </c>
+      <c r="E26" t="str">
+        <f>IF(ISNA(VLOOKUP(A26,Sheet1!A:F,5,FALSE)),D26,VLOOKUP(A26,Sheet1!A:F,5,FALSE))</f>
+        <v>gridmappr: an R package for creating small multiple gridmap layouts</v>
+      </c>
+      <c r="F26" t="str">
+        <f>VLOOKUP(A26,Sheet3!A:B,2,FALSE)</f>
+        <v>https://doi.org/10.5281/zenodo.10926863</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>48</v>
+      </c>
+      <c r="B27" t="s">
+        <v>430</v>
+      </c>
+      <c r="C27" t="s">
+        <v>454</v>
+      </c>
+      <c r="D27" t="s">
+        <v>126</v>
+      </c>
+      <c r="E27" t="str">
+        <f>IF(ISNA(VLOOKUP(A27,Sheet1!A:F,5,FALSE)),D27,VLOOKUP(A27,Sheet1!A:F,5,FALSE))</f>
+        <v>A spatially explicit model of beaver river-floodplains: understanding drivers and mapping opportunities for restoration.</v>
+      </c>
+      <c r="F27" t="e">
+        <f>VLOOKUP(A27,Sheet3!A:B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>49</v>
+      </c>
+      <c r="B28" t="s">
+        <v>373</v>
+      </c>
+      <c r="C28" t="s">
+        <v>374</v>
+      </c>
+      <c r="D28" t="s">
+        <v>455</v>
+      </c>
+      <c r="E28" t="str">
+        <f>IF(ISNA(VLOOKUP(A28,Sheet1!A:F,5,FALSE)),D28,VLOOKUP(A28,Sheet1!A:F,5,FALSE))</f>
+        <v>Investigating the Impact of Housing Energy Efficiency on Indoor Environment at the Overheating Summer – A Study in Southwark, London</v>
+      </c>
+      <c r="F28" t="str">
+        <f>VLOOKUP(A28,Sheet3!A:B,2,FALSE)</f>
+        <v>https://doi.org/10.5281/zenodo.10926876</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>50</v>
+      </c>
+      <c r="B29" t="s">
+        <v>376</v>
+      </c>
+      <c r="C29" t="s">
+        <v>377</v>
+      </c>
+      <c r="D29" t="s">
+        <v>93</v>
+      </c>
+      <c r="E29" t="str">
+        <f>IF(ISNA(VLOOKUP(A29,Sheet1!A:F,5,FALSE)),D29,VLOOKUP(A29,Sheet1!A:F,5,FALSE))</f>
+        <v>Leveraging Machine Learning and Street View Imagery to Study the association between social inequalities and visual walkability in the South Africa Context</v>
+      </c>
+      <c r="F29" t="str">
+        <f>VLOOKUP(A29,Sheet3!A:B,2,FALSE)</f>
+        <v>https://doi.org/10.5281/zenodo.10926892</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>51</v>
+      </c>
+      <c r="B30" t="s">
+        <v>379</v>
+      </c>
+      <c r="C30" t="s">
+        <v>380</v>
+      </c>
+      <c r="D30" t="s">
+        <v>381</v>
+      </c>
+      <c r="E30" t="str">
+        <f>IF(ISNA(VLOOKUP(A30,Sheet1!A:F,5,FALSE)),D30,VLOOKUP(A30,Sheet1!A:F,5,FALSE))</f>
+        <v>Identifying areas of poor health outcome risk due to food insecurity ‚Äì A Geographically Weighted Regression approach</v>
+      </c>
+      <c r="F30" t="str">
+        <f>VLOOKUP(A30,Sheet3!A:B,2,FALSE)</f>
+        <v>https://doi.org/10.5281/zenodo.10926900</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>56</v>
+      </c>
+      <c r="B31" t="s">
+        <v>383</v>
+      </c>
+      <c r="C31" t="s">
+        <v>384</v>
+      </c>
+      <c r="D31" t="s">
+        <v>456</v>
+      </c>
+      <c r="E31" t="str">
+        <f>IF(ISNA(VLOOKUP(A31,Sheet1!A:F,5,FALSE)),D31,VLOOKUP(A31,Sheet1!A:F,5,FALSE))</f>
+        <v>Time in nature reduces socioeconomic inequalities in child mental wellbeing.</v>
+      </c>
+      <c r="F31" t="str">
+        <f>VLOOKUP(A31,Sheet3!A:B,2,FALSE)</f>
+        <v>https://doi.org/10.5281/zenodo.10926959</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>58</v>
+      </c>
+      <c r="B32" t="s">
+        <v>386</v>
+      </c>
+      <c r="C32" t="s">
+        <v>387</v>
+      </c>
+      <c r="D32" t="s">
+        <v>208</v>
+      </c>
+      <c r="E32" t="str">
+        <f>IF(ISNA(VLOOKUP(A32,Sheet1!A:F,5,FALSE)),D32,VLOOKUP(A32,Sheet1!A:F,5,FALSE))</f>
+        <v>Modelling the cooling effects of urban canals</v>
+      </c>
+      <c r="F32" t="str">
+        <f>VLOOKUP(A32,Sheet3!A:B,2,FALSE)</f>
+        <v>https://doi.org/10.5281/zenodo.10927599</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>59</v>
+      </c>
+      <c r="B33" t="s">
+        <v>389</v>
+      </c>
+      <c r="C33" t="s">
+        <v>390</v>
+      </c>
+      <c r="D33" t="s">
+        <v>179</v>
+      </c>
+      <c r="E33" t="str">
+        <f>IF(ISNA(VLOOKUP(A33,Sheet1!A:F,5,FALSE)),D33,VLOOKUP(A33,Sheet1!A:F,5,FALSE))</f>
+        <v>An open-source web-based solution for interactive assessment of accessibility via public transport</v>
+      </c>
+      <c r="F33" t="str">
+        <f>VLOOKUP(A33,Sheet3!A:B,2,FALSE)</f>
+        <v>https://doi.org/10.5281/zenodo.10927655</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>60</v>
+      </c>
+      <c r="B34" t="s">
+        <v>392</v>
+      </c>
+      <c r="C34" t="s">
+        <v>393</v>
+      </c>
+      <c r="D34" t="s">
+        <v>73</v>
+      </c>
+      <c r="E34" t="str">
+        <f>IF(ISNA(VLOOKUP(A34,Sheet1!A:F,5,FALSE)),D34,VLOOKUP(A34,Sheet1!A:F,5,FALSE))</f>
+        <v>Habitat connectivity workflow to support decisions and trade-offs between local stakeholders</v>
+      </c>
+      <c r="F34" t="str">
+        <f>VLOOKUP(A34,Sheet3!A:B,2,FALSE)</f>
+        <v>https://doi.org/10.5281/zenodo.10927659</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>61</v>
+      </c>
+      <c r="B35" t="s">
+        <v>395</v>
+      </c>
+      <c r="C35" t="s">
+        <v>396</v>
+      </c>
+      <c r="D35" t="s">
+        <v>95</v>
+      </c>
+      <c r="E35" t="str">
+        <f>IF(ISNA(VLOOKUP(A35,Sheet1!A:F,5,FALSE)),D35,VLOOKUP(A35,Sheet1!A:F,5,FALSE))</f>
+        <v>Spatial Empowerment: Participatory and Computational Mapping in El Mina's Neighbourhoods</v>
+      </c>
+      <c r="F35" t="str">
+        <f>VLOOKUP(A35,Sheet3!A:B,2,FALSE)</f>
+        <v>https://doi.org/10.5281/zenodo.10927671</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>62</v>
+      </c>
+      <c r="B36" t="s">
+        <v>398</v>
+      </c>
+      <c r="C36" t="s">
+        <v>399</v>
+      </c>
+      <c r="D36" t="s">
+        <v>186</v>
+      </c>
+      <c r="E36" t="str">
+        <f>IF(ISNA(VLOOKUP(A36,Sheet1!A:F,5,FALSE)),D36,VLOOKUP(A36,Sheet1!A:F,5,FALSE))</f>
+        <v>Designing a Tank Prioritisation Index for Sri Lanka: A Geospatial Approach</v>
+      </c>
+      <c r="F36" t="str">
+        <f>VLOOKUP(A36,Sheet3!A:B,2,FALSE)</f>
+        <v>https://doi.org/10.5281/zenodo.10927868</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>63</v>
+      </c>
+      <c r="B37" t="s">
+        <v>361</v>
+      </c>
+      <c r="C37" t="s">
+        <v>457</v>
+      </c>
+      <c r="D37" t="s">
+        <v>47</v>
+      </c>
+      <c r="E37" t="str">
+        <f>IF(ISNA(VLOOKUP(A37,Sheet1!A:F,5,FALSE)),D37,VLOOKUP(A37,Sheet1!A:F,5,FALSE))</f>
+        <v>Analysing Shooting Incidents in New York Using Spatial Regression Techniques</v>
+      </c>
+      <c r="F37" t="str">
+        <f>VLOOKUP(A37,Sheet3!A:B,2,FALSE)</f>
+        <v>https://doi.org/10.5281/zenodo.10935693</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>67</v>
+      </c>
+      <c r="B38" t="s">
+        <v>401</v>
+      </c>
+      <c r="C38" t="s">
+        <v>402</v>
+      </c>
+      <c r="D38" t="s">
+        <v>403</v>
+      </c>
+      <c r="E38" t="str">
+        <f>IF(ISNA(VLOOKUP(A38,Sheet1!A:F,5,FALSE)),D38,VLOOKUP(A38,Sheet1!A:F,5,FALSE))</f>
+        <v>Can X (Twitter) be used to Predict Tourism Patterns? Yes!</v>
+      </c>
+      <c r="F38" t="str">
+        <f>VLOOKUP(A38,Sheet3!A:B,2,FALSE)</f>
+        <v>https://doi.org/10.5281/zenodo.10927928</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>69</v>
+      </c>
+      <c r="B39" t="s">
+        <v>405</v>
+      </c>
+      <c r="C39" t="s">
+        <v>406</v>
+      </c>
+      <c r="D39" t="s">
+        <v>114</v>
+      </c>
+      <c r="E39" t="str">
+        <f>IF(ISNA(VLOOKUP(A39,Sheet1!A:F,5,FALSE)),D39,VLOOKUP(A39,Sheet1!A:F,5,FALSE))</f>
+        <v>Identification of Green Corridors as a type of Urban Green Spaces.</v>
+      </c>
+      <c r="F39" t="str">
+        <f>VLOOKUP(A39,Sheet3!A:B,2,FALSE)</f>
+        <v>https://doi.org/10.5281/zenodo.10927987</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>70</v>
+      </c>
+      <c r="B40" t="s">
+        <v>408</v>
+      </c>
+      <c r="C40" t="s">
+        <v>409</v>
+      </c>
+      <c r="D40" t="s">
+        <v>410</v>
+      </c>
+      <c r="E40" t="str">
+        <f>IF(ISNA(VLOOKUP(A40,Sheet1!A:F,5,FALSE)),D40,VLOOKUP(A40,Sheet1!A:F,5,FALSE))</f>
+        <v>A Geospatial Analysis of Work From Home Policies on UK Job Satisfaction During Covid-19</v>
+      </c>
+      <c r="F40" t="str">
+        <f>VLOOKUP(A40,Sheet3!A:B,2,FALSE)</f>
+        <v>https://doi.org/10.5281/zenodo.10928004</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>75</v>
+      </c>
+      <c r="B41" t="s">
+        <v>412</v>
+      </c>
+      <c r="C41" t="s">
+        <v>413</v>
+      </c>
+      <c r="D41" t="s">
+        <v>198</v>
+      </c>
+      <c r="E41" t="str">
+        <f>IF(ISNA(VLOOKUP(A41,Sheet1!A:F,5,FALSE)),D41,VLOOKUP(A41,Sheet1!A:F,5,FALSE))</f>
+        <v>Disaggregating Census Data for Population Mapping Using a Bayesian Additive Regression Tree Model</v>
+      </c>
+      <c r="F41" t="str">
+        <f>VLOOKUP(A41,Sheet3!A:B,2,FALSE)</f>
+        <v>https://doi.org/10.5281/zenodo.10930867</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>78</v>
+      </c>
+      <c r="B42" t="s">
+        <v>415</v>
+      </c>
+      <c r="C42" t="s">
+        <v>416</v>
+      </c>
+      <c r="D42" t="s">
+        <v>158</v>
+      </c>
+      <c r="E42" t="str">
+        <f>IF(ISNA(VLOOKUP(A42,Sheet1!A:F,5,FALSE)),D42,VLOOKUP(A42,Sheet1!A:F,5,FALSE))</f>
+        <v>Developing the first multi-dimensional measure of access to health-related features for Warsaw, Poland</v>
+      </c>
+      <c r="F42" t="str">
+        <f>VLOOKUP(A42,Sheet3!A:B,2,FALSE)</f>
+        <v>https://doi.org/10.5281/zenodo.10931725</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>80</v>
+      </c>
+      <c r="B43" t="s">
+        <v>418</v>
+      </c>
       <c r="C43" t="s">
-        <v>441</v>
+        <v>419</v>
       </c>
       <c r="D43" t="s">
-        <v>442</v>
-      </c>
-      <c r="E43" t="s">
-        <v>213</v>
-      </c>
-      <c r="F43" t="s">
-        <v>440</v>
+        <v>173</v>
+      </c>
+      <c r="E43" t="str">
+        <f>IF(ISNA(VLOOKUP(A43,Sheet1!A:F,5,FALSE)),D43,VLOOKUP(A43,Sheet1!A:F,5,FALSE))</f>
+        <v>Origin-destination-based public transport connectivity measures for enhancing service equity</v>
+      </c>
+      <c r="F43" t="str">
+        <f>VLOOKUP(A43,Sheet3!A:B,2,FALSE)</f>
+        <v>https://doi.org/10.5281/zenodo.10931742</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>81</v>
+      </c>
+      <c r="B44" t="s">
+        <v>458</v>
+      </c>
+      <c r="C44" t="s">
+        <v>459</v>
+      </c>
+      <c r="D44" t="s">
+        <v>460</v>
+      </c>
+      <c r="E44" t="str">
+        <f>IF(ISNA(VLOOKUP(A44,Sheet1!A:F,5,FALSE)),D44,VLOOKUP(A44,Sheet1!A:F,5,FALSE))</f>
+        <v>Is a (satellite) image worth a thousand data points? Comparing machine learning approaches for predicting social andenvironmental inequalities across England.</v>
+      </c>
+      <c r="F44" t="str">
+        <f>VLOOKUP(A44,Sheet3!A:B,2,FALSE)</f>
+        <v>https://doi.org/10.5281/zenodo.10935754</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>82</v>
+      </c>
+      <c r="B45" t="s">
+        <v>461</v>
+      </c>
+      <c r="C45" t="s">
+        <v>462</v>
+      </c>
+      <c r="D45" t="s">
+        <v>216</v>
+      </c>
+      <c r="E45" t="str">
+        <f>IF(ISNA(VLOOKUP(A45,Sheet1!A:F,5,FALSE)),D45,VLOOKUP(A45,Sheet1!A:F,5,FALSE))</f>
+        <v>A Deep Learning Framework for Missing Information Imputation in Traffic Crash Records</v>
+      </c>
+      <c r="F45" t="str">
+        <f>VLOOKUP(A45,Sheet3!A:B,2,FALSE)</f>
+        <v>https://doi.org/10.5281/zenodo.10935869</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>83</v>
+      </c>
+      <c r="B46" t="s">
+        <v>421</v>
+      </c>
+      <c r="C46" t="s">
+        <v>422</v>
+      </c>
+      <c r="D46" t="s">
+        <v>152</v>
+      </c>
+      <c r="E46" t="str">
+        <f>IF(ISNA(VLOOKUP(A46,Sheet1!A:F,5,FALSE)),D46,VLOOKUP(A46,Sheet1!A:F,5,FALSE))</f>
+        <v>Managing Variability: A sensitivity analysis approach applied to mobile app data</v>
+      </c>
+      <c r="F46" t="str">
+        <f>VLOOKUP(A46,Sheet3!A:B,2,FALSE)</f>
+        <v>https://doi.org/10.5281/zenodo.10931749</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>84</v>
+      </c>
+      <c r="B47" t="s">
+        <v>424</v>
+      </c>
+      <c r="C47" t="s">
+        <v>425</v>
+      </c>
+      <c r="D47" t="s">
+        <v>140</v>
+      </c>
+      <c r="E47" t="str">
+        <f>IF(ISNA(VLOOKUP(A47,Sheet1!A:F,5,FALSE)),D47,VLOOKUP(A47,Sheet1!A:F,5,FALSE))</f>
+        <v>Improving Deep Neural Net Aerial Lidar Point Cloud Object Classification Accuracy using a Second Processing Pass</v>
+      </c>
+      <c r="F47" t="str">
+        <f>VLOOKUP(A47,Sheet3!A:B,2,FALSE)</f>
+        <v>https://doi.org/10.5281/zenodo.10931778</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>85</v>
+      </c>
+      <c r="B48" t="s">
+        <v>427</v>
+      </c>
+      <c r="C48" t="s">
+        <v>428</v>
+      </c>
+      <c r="D48" t="s">
+        <v>117</v>
+      </c>
+      <c r="E48" t="str">
+        <f>IF(ISNA(VLOOKUP(A48,Sheet1!A:F,5,FALSE)),D48,VLOOKUP(A48,Sheet1!A:F,5,FALSE))</f>
+        <v>Capturing high street dynamics on a finer scale: a case study in the context of COVID-19</v>
+      </c>
+      <c r="F48" t="str">
+        <f>VLOOKUP(A48,Sheet3!A:B,2,FALSE)</f>
+        <v>https://doi.org/10.5281/zenodo.10931921</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>86</v>
+      </c>
+      <c r="B49" t="s">
+        <v>430</v>
+      </c>
+      <c r="C49" t="s">
+        <v>431</v>
+      </c>
+      <c r="D49" t="s">
+        <v>97</v>
+      </c>
+      <c r="E49" t="str">
+        <f>IF(ISNA(VLOOKUP(A49,Sheet1!A:F,5,FALSE)),D49,VLOOKUP(A49,Sheet1!A:F,5,FALSE))</f>
+        <v>Understanding the local spatial and temporal patterns of attitudes towards immigration using Twitter data</v>
+      </c>
+      <c r="F49" t="str">
+        <f>VLOOKUP(A49,Sheet3!A:B,2,FALSE)</f>
+        <v>https://doi.org/10.5281/zenodo.10931929</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>87</v>
+      </c>
+      <c r="B50" t="s">
+        <v>430</v>
+      </c>
+      <c r="C50" t="s">
+        <v>433</v>
+      </c>
+      <c r="D50" t="s">
+        <v>143</v>
+      </c>
+      <c r="E50" t="str">
+        <f>IF(ISNA(VLOOKUP(A50,Sheet1!A:F,5,FALSE)),D50,VLOOKUP(A50,Sheet1!A:F,5,FALSE))</f>
+        <v>Introducing Overture: A Cloud-Native Global Map</v>
+      </c>
+      <c r="F50" t="str">
+        <f>VLOOKUP(A50,Sheet3!A:B,2,FALSE)</f>
+        <v>https://doi.org/10.5281/zenodo.10931940</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>89</v>
+      </c>
+      <c r="B51" t="s">
+        <v>463</v>
+      </c>
+      <c r="C51" t="s">
+        <v>464</v>
+      </c>
+      <c r="D51" t="s">
+        <v>195</v>
+      </c>
+      <c r="E51" t="str">
+        <f>IF(ISNA(VLOOKUP(A51,Sheet1!A:F,5,FALSE)),D51,VLOOKUP(A51,Sheet1!A:F,5,FALSE))</f>
+        <v>Analysing Global Policy Responses to COVID-19: An Agent-based model to explore the stringency in policies</v>
+      </c>
+      <c r="F51" t="str">
+        <f>VLOOKUP(A51,Sheet3!A:B,2,FALSE)</f>
+        <v>https://doi.org/10.5281/zenodo.10935875</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>91</v>
+      </c>
+      <c r="B52" t="s">
+        <v>435</v>
+      </c>
+      <c r="C52" t="s">
+        <v>436</v>
+      </c>
+      <c r="D52" t="s">
+        <v>149</v>
+      </c>
+      <c r="E52" t="str">
+        <f>IF(ISNA(VLOOKUP(A52,Sheet1!A:F,5,FALSE)),D52,VLOOKUP(A52,Sheet1!A:F,5,FALSE))</f>
+        <v>TOWARDS SITUATIONAL AWARENESS OF URBAN PEDESTRIAN FLOWS: AN ASSESSMENT OF DATA QUALITY ON THE PERFORMANCE OF PREDICTIVE MODELS</v>
+      </c>
+      <c r="F52" t="str">
+        <f>VLOOKUP(A52,Sheet3!A:B,2,FALSE)</f>
+        <v>https://doi.org/10.5281/zenodo.10931950</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>92</v>
+      </c>
+      <c r="B53" t="s">
+        <v>438</v>
+      </c>
+      <c r="C53" t="s">
+        <v>439</v>
+      </c>
+      <c r="D53" t="s">
+        <v>211</v>
+      </c>
+      <c r="E53" t="str">
+        <f>IF(ISNA(VLOOKUP(A53,Sheet1!A:F,5,FALSE)),D53,VLOOKUP(A53,Sheet1!A:F,5,FALSE))</f>
+        <v>Dynamic Wildfire Risk Modelling</v>
+      </c>
+      <c r="F53" t="str">
+        <f>VLOOKUP(A53,Sheet3!A:B,2,FALSE)</f>
+        <v>https://doi.org/10.5281/zenodo.10931961</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>94</v>
+      </c>
+      <c r="B54" t="s">
+        <v>465</v>
+      </c>
+      <c r="C54" t="s">
+        <v>466</v>
+      </c>
+      <c r="D54" t="s">
+        <v>76</v>
+      </c>
+      <c r="E54" t="str">
+        <f>IF(ISNA(VLOOKUP(A54,Sheet1!A:F,5,FALSE)),D54,VLOOKUP(A54,Sheet1!A:F,5,FALSE))</f>
+        <v>Mapping the connectivity of higher potential naturalness areas in the UK</v>
+      </c>
+      <c r="F54" t="str">
+        <f>VLOOKUP(A54,Sheet3!A:B,2,FALSE)</f>
+        <v>https://doi.org/10.5281/zenodo.10935879</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96AF9422-9A7E-FB43-95EE-35BA1E1DC021}">
+  <dimension ref="A1:B70"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B70"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>16</v>
+      </c>
+      <c r="B11" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>18</v>
+      </c>
+      <c r="B12" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>19</v>
+      </c>
+      <c r="B13" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>21</v>
+      </c>
+      <c r="B14" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>25</v>
+      </c>
+      <c r="B17" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>29</v>
+      </c>
+      <c r="B18" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>31</v>
+      </c>
+      <c r="B19" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>32</v>
+      </c>
+      <c r="B20" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>34</v>
+      </c>
+      <c r="B21" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>35</v>
+      </c>
+      <c r="B22" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>40</v>
+      </c>
+      <c r="B23" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>41</v>
+      </c>
+      <c r="B24" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>44</v>
+      </c>
+      <c r="B25" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>45</v>
+      </c>
+      <c r="B26" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>46</v>
+      </c>
+      <c r="B27" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>47</v>
+      </c>
+      <c r="B28" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>49</v>
+      </c>
+      <c r="B29" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>50</v>
+      </c>
+      <c r="B30" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>51</v>
+      </c>
+      <c r="B31" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>55</v>
+      </c>
+      <c r="B32" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>56</v>
+      </c>
+      <c r="B33" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>57</v>
+      </c>
+      <c r="B34" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>58</v>
+      </c>
+      <c r="B35" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>59</v>
+      </c>
+      <c r="B36" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>60</v>
+      </c>
+      <c r="B37" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>61</v>
+      </c>
+      <c r="B38" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>62</v>
+      </c>
+      <c r="B39" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>66</v>
+      </c>
+      <c r="B40" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>67</v>
+      </c>
+      <c r="B41" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>68</v>
+      </c>
+      <c r="B42" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>69</v>
+      </c>
+      <c r="B43" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>70</v>
+      </c>
+      <c r="B44" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>71</v>
+      </c>
+      <c r="B45" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>72</v>
+      </c>
+      <c r="B46" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>73</v>
+      </c>
+      <c r="B47" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>74</v>
+      </c>
+      <c r="B48" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>75</v>
+      </c>
+      <c r="B49" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>76</v>
+      </c>
+      <c r="B50" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>78</v>
+      </c>
+      <c r="B51" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>80</v>
+      </c>
+      <c r="B52" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>83</v>
+      </c>
+      <c r="B53" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>84</v>
+      </c>
+      <c r="B54" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>85</v>
+      </c>
+      <c r="B55" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>86</v>
+      </c>
+      <c r="B56" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>87</v>
+      </c>
+      <c r="B57" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>91</v>
+      </c>
+      <c r="B58" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>92</v>
+      </c>
+      <c r="B59" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>9</v>
+      </c>
+      <c r="B60" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>33</v>
+      </c>
+      <c r="B61" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>42</v>
+      </c>
+      <c r="B62" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>52</v>
+      </c>
+      <c r="B63" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>125</v>
+      </c>
+      <c r="B65" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>79</v>
+      </c>
+      <c r="B66" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>81</v>
+      </c>
+      <c r="B67" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>82</v>
+      </c>
+      <c r="B68" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>89</v>
+      </c>
+      <c r="B69" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>94</v>
+      </c>
+      <c r="B70" t="s">
+        <v>493</v>
       </c>
     </row>
   </sheetData>
